--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -16,14 +16,14 @@
     <definedName name="产品管理系统首页">#REF!</definedName>
     <definedName name="通用" localSheetId="0">elements!#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
-    <definedName name="页面" localSheetId="0">elements!$A$27:$A$27</definedName>
+    <definedName name="页面" localSheetId="0">elements!$A$28:$A$28</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,14 @@
   </si>
   <si>
     <t>无效-选择输入框#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[@class="sl-menubox"]/div//div[@class="tree"]//ul/li[#]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,11 +910,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1297,32 +1305,32 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
-        <v>45</v>
-      </c>
+    <row r="27" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="B28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1330,22 +1338,28 @@
     <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
@@ -1358,17 +1372,17 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="5"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="5"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1377,8 +1391,8 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1393,8 +1407,8 @@
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1474,16 +1488,16 @@
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="6"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="4"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A48" s="6"/>
@@ -1510,19 +1524,19 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A51" s="7"/>
+      <c r="A51" s="6"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="14"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="13"/>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="15"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1536,14 +1550,14 @@
     <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="6"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A55" s="6"/>
-      <c r="B55" s="5"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="3"/>
       <c r="C55" s="7"/>
       <c r="D55" s="3"/>
       <c r="E55" s="16"/>
@@ -1551,7 +1565,7 @@
     </row>
     <row r="56" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A56" s="6"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="7"/>
       <c r="D56" s="3"/>
       <c r="E56" s="16"/>
@@ -1559,243 +1573,251 @@
     </row>
     <row r="57" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A57" s="6"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="17"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="16"/>
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="6"/>
-      <c r="B58" s="3"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="16"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="17"/>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="6"/>
-      <c r="B59" s="5"/>
+      <c r="B59" s="3"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="17"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="16"/>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="6"/>
-      <c r="B60" s="3"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="16"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="17"/>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A61" s="6"/>
-      <c r="B61" s="5"/>
+      <c r="B61" s="3"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="17"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="16"/>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A62" s="6"/>
-      <c r="B62" s="3"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="16"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="17"/>
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A63" s="6"/>
-      <c r="B63" s="5"/>
+      <c r="B63" s="3"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="17"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="16"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="6"/>
-      <c r="B64" s="3"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="16"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="17"/>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="6"/>
-      <c r="B65" s="5"/>
+      <c r="B65" s="3"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="17"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="16"/>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="6"/>
-      <c r="B66" s="3"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="16"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="17"/>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="6"/>
-      <c r="B67" s="5"/>
+      <c r="B67" s="3"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="17"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="16"/>
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="6"/>
-      <c r="B68" s="3"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="16"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="17"/>
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="6"/>
-      <c r="B69" s="5"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="17"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="16"/>
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="6"/>
-      <c r="B70" s="3"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="16"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="17"/>
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="6"/>
-      <c r="B71" s="5"/>
+      <c r="B71" s="3"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="17"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="16"/>
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="6"/>
-      <c r="B72" s="3"/>
+      <c r="B72" s="5"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="16"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="17"/>
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="6"/>
-      <c r="B73" s="5"/>
+      <c r="B73" s="3"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="17"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="16"/>
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="6"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="5"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="16"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="17"/>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="6"/>
-      <c r="B75" s="5"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="17"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="16"/>
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="6"/>
-      <c r="B76" s="3"/>
+      <c r="B76" s="5"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="16"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="17"/>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="6"/>
-      <c r="B77" s="5"/>
+      <c r="B77" s="3"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="17"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="16"/>
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="6"/>
-      <c r="B78" s="3"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="16"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="17"/>
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="6"/>
-      <c r="B79" s="5"/>
+      <c r="B79" s="3"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="17"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="16"/>
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="6"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="16"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="17"/>
       <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="6"/>
-      <c r="B81" s="5"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="17"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="16"/>
       <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="6"/>
-      <c r="B82" s="3"/>
+      <c r="B82" s="5"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="16"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="17"/>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="6"/>
-      <c r="B83" s="5"/>
+      <c r="B83" s="3"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="17"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="16"/>
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="6"/>
-      <c r="B84" s="3"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="16"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="17"/>
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="6"/>
-      <c r="B85" s="5"/>
+      <c r="B85" s="3"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="17"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="16"/>
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="6"/>
-      <c r="B86" s="3"/>
+      <c r="B86" s="5"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="16"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="17"/>
       <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A87" s="6"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -301,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class="search"]//div[@class="datas"]/div/div/div/table/tbody/tr[#]/td[@col="index"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>页面的文本选择框，可点击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,6 +334,10 @@
   </si>
   <si>
     <t>/html/body/div[@class="sl-menubox"]/div//div[@class="tree"]//ul/li[#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[@class="sl-popup model"]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr[#]/td[@col="index"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,7 +914,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1202,13 +1202,13 @@
     <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -1276,45 +1276,45 @@
     <row r="25" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="87" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="768" windowWidth="20568" windowHeight="10848"/>
+    <workbookView xWindow="240" yWindow="828" windowWidth="20568" windowHeight="10788"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <definedName name="产品管理系统首页">#REF!</definedName>
     <definedName name="通用" localSheetId="0">elements!#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
-    <definedName name="页面" localSheetId="0">elements!$A$28:$A$28</definedName>
+    <definedName name="页面" localSheetId="0">elements!$A$31:$A$31</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,170 +77,222 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*link#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partial_link_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@name="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//table/tbody/tr[#]/td[#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom 列一般用作页面有 frame 的情况，如果元素不在默认 frame，需要填写该元素的 frame id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="login_button clearfix"]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="fixed"]/div/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1根节点，2子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='filters']//ul[@class="content"]/li[#]//span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@class="logo"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面的文本选择框，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//table/tbody//span[text()='#']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效-选择输入框#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="opts"]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉的数据，参数为第n条数据，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>页面title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*link#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>partial_link_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@name="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>div#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[text()="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//button[text()="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//table/tbody/tr[#]/td[#]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>custom 列一般用作页面有 frame 的情况，如果元素不在默认 frame，需要填写该元素的 frame id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwd1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="login_button clearfix"]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>菜单#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,11 +301,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[text()='#']</t>
+    <t>文本输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧树#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -261,83 +313,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//span[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="fixed"]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1根节点，2子节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧树#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='filters']//ul[@class="content"]/li[#]//span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//a[@class="logo"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面的文本选择框，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出的文本选择框的数据，参数为第几条数据，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出选择项#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class="opts"]/div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//table/tbody//span[text()='#']/following-sibling::span[1]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效-选择输入框#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下拉选择项#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[@class="sl-menubox"]/div//div[@class="tree"]//ul/li[#]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[@class="sl-popup model"]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr[#]/td[@col="index"]</t>
+    <t>下拉选择项值#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项值#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出的文本选择框，根据内容选择，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出的文本选择框，参数为第n条数据，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉的数据，根据内容选择，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="sub"]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup"]//span[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="nav"]//span[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li[#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li/span[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr[#]/td[@col="index"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr/td/span/div[text()='#']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -910,11 +946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -952,10 +988,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -966,27 +1002,27 @@
     <row r="3" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="3" t="s">
@@ -996,13 +1032,13 @@
     <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="3"/>
@@ -1010,13 +1046,13 @@
     <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="3"/>
@@ -1024,13 +1060,13 @@
     <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="3"/>
@@ -1038,13 +1074,13 @@
     <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="3"/>
@@ -1052,13 +1088,13 @@
     <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="3"/>
@@ -1066,13 +1102,13 @@
     <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="3"/>
@@ -1080,13 +1116,13 @@
     <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="3"/>
@@ -1094,13 +1130,13 @@
     <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="3"/>
@@ -1108,10 +1144,10 @@
     <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>8</v>
@@ -1122,13 +1158,13 @@
     <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="3"/>
@@ -1136,13 +1172,13 @@
     <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="3"/>
@@ -1150,11 +1186,11 @@
     <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="3"/>
@@ -1162,39 +1198,39 @@
     <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1202,213 +1238,237 @@
     <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="F21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F29" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1423,16 +1483,16 @@
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="3"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1496,32 +1556,32 @@
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="6"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="4"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A49" s="6"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="4"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A50" s="6"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A51" s="6"/>
@@ -1532,292 +1592,316 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="7"/>
+      <c r="A52" s="6"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="14"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="13"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="7"/>
-      <c r="B53" s="3"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="15"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="13"/>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="7"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="15"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="13"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="6"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A56" s="6"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="6"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A57" s="6"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="6"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A58" s="6"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="17"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="16"/>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="6"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="6"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="3"/>
       <c r="E59" s="16"/>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="6"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="17"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="16"/>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A61" s="6"/>
-      <c r="B61" s="3"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="16"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="17"/>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A62" s="6"/>
-      <c r="B62" s="5"/>
+      <c r="B62" s="3"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="17"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="16"/>
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A63" s="6"/>
-      <c r="B63" s="3"/>
+      <c r="B63" s="5"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="16"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="17"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="6"/>
-      <c r="B64" s="5"/>
+      <c r="B64" s="3"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="17"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="16"/>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="6"/>
-      <c r="B65" s="3"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="16"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="17"/>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="6"/>
-      <c r="B66" s="5"/>
+      <c r="B66" s="3"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="17"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="16"/>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="6"/>
-      <c r="B67" s="3"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="16"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="17"/>
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="6"/>
-      <c r="B68" s="5"/>
+      <c r="B68" s="3"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="17"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="16"/>
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="6"/>
-      <c r="B69" s="3"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="16"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="17"/>
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="6"/>
-      <c r="B70" s="5"/>
+      <c r="B70" s="3"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="17"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="16"/>
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="6"/>
-      <c r="B71" s="3"/>
+      <c r="B71" s="5"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="16"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="17"/>
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="6"/>
-      <c r="B72" s="5"/>
+      <c r="B72" s="3"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="17"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="16"/>
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="6"/>
-      <c r="B73" s="3"/>
+      <c r="B73" s="5"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="16"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="17"/>
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="6"/>
-      <c r="B74" s="5"/>
+      <c r="B74" s="3"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="17"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="16"/>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="6"/>
-      <c r="B75" s="3"/>
+      <c r="B75" s="5"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="16"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="17"/>
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="6"/>
-      <c r="B76" s="5"/>
+      <c r="B76" s="3"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="17"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="16"/>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="6"/>
-      <c r="B77" s="3"/>
+      <c r="B77" s="5"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="16"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="17"/>
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="6"/>
-      <c r="B78" s="5"/>
+      <c r="B78" s="3"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="17"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="16"/>
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="6"/>
-      <c r="B79" s="3"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="16"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="17"/>
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="6"/>
-      <c r="B80" s="5"/>
+      <c r="B80" s="3"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="17"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="16"/>
       <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="6"/>
-      <c r="B81" s="3"/>
+      <c r="B81" s="5"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="16"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="17"/>
       <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="6"/>
-      <c r="B82" s="5"/>
+      <c r="B82" s="3"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="17"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="16"/>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="6"/>
-      <c r="B83" s="3"/>
+      <c r="B83" s="5"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="16"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="17"/>
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="6"/>
-      <c r="B84" s="5"/>
+      <c r="B84" s="3"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="17"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="16"/>
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="6"/>
-      <c r="B85" s="3"/>
+      <c r="B85" s="5"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="16"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="17"/>
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="6"/>
-      <c r="B86" s="5"/>
+      <c r="B86" s="3"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="17"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="16"/>
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="6"/>
-      <c r="B87" s="3"/>
+      <c r="B87" s="5"/>
       <c r="C87" s="6"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="16"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="17"/>
       <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A88" s="6"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A89" s="6"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A90" s="6"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="828" windowWidth="20568" windowHeight="10788"/>
+    <workbookView xWindow="240" yWindow="888" windowWidth="20568" windowHeight="10728"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <definedName name="产品管理系统首页">#REF!</definedName>
     <definedName name="通用" localSheetId="0">elements!#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
-    <definedName name="页面" localSheetId="0">elements!$A$31:$A$31</definedName>
+    <definedName name="页面" localSheetId="0">elements!$A$35:$A$35</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,19 +265,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页面的文本选择框，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//table/tbody//span[text()='#']/following-sibling::span[1]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输入框#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无效-选择输入框#</t>
+    <t>下拉的数据，参数为第n条数据，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧树#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项值#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项值#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出的文本选择框，根据内容选择，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出的文本选择框，参数为第n条数据，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉的数据，根据内容选择，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="sub"]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup"]//span[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li[#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li/span[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr[#]/td[@col="index"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr/td/span/div[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="nav"]//span[text()='#']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -285,75 +365,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下拉的数据，参数为第n条数据，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧树#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择项#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉选择项#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉选择项值#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择项值#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出的文本选择框，根据内容选择，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出的文本选择框，参数为第n条数据，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉的数据，根据内容选择，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="sub"]//a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子表按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup"]//span[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="nav"]//span[text()='#']</t>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="radiogroup r1"]/span[text()='#']/following-sibling::span/div/ul/li[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="checkgroup exists r1"]/span[text()='所属模块']/following-sibling::span/div/ul/li[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数是按钮名称，选择第一个选项；例如是否启用的选择按钮，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数是按钮名称，选择第一个选项。例如：功能位置中选择所属模块的复选框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表条目统计#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于检查统计的条目，例如参数为：全部 1 条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//div[@class="sl-flipper"]/span[@class="full" and text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]/div[@class="layout"]//div[@class="opts form"]//div[@class="datas"]/div[@class="table"]//div[@class="body"]/table/tbody//td/span/div[text()='设备']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表字段值#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在列表中查找是否包含该参数的数据，参数为列表字段值，比如：#设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表除导入外的按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表除导入外的按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -361,19 +421,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li[#]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li/span[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr[#]/td[@col="index"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr/td/span/div[text()='#']</t>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//li/form/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入文件上传</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -946,11 +1002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -988,7 +1044,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>13</v>
@@ -1210,13 +1266,13 @@
     <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1224,281 +1280,317 @@
     <row r="19" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="F19" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="F20" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="F22" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="F25" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F31" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F32" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F33" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="5"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
+    <row r="38" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
       <c r="D40" s="5"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1515,16 +1607,16 @@
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="3"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="3"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1580,101 +1672,101 @@
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A51" s="6"/>
+      <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="4"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="6"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="4"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="6"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="4"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="6"/>
+      <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A55" s="7"/>
+      <c r="A55" s="6"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="14"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="13"/>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A56" s="7"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="15"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="13"/>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A57" s="7"/>
-      <c r="B57" s="3"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="15"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="13"/>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A58" s="7"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="6"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="6"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="6"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A60" s="6"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="6"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A61" s="6"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="6"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A62" s="6"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="6"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="3"/>
       <c r="E62" s="16"/>
       <c r="F62" s="6"/>
@@ -1682,15 +1774,15 @@
     <row r="63" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A63" s="6"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="17"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="16"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="6"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="3"/>
       <c r="E64" s="16"/>
       <c r="F64" s="6"/>
@@ -1903,6 +1995,38 @@
       <c r="E90" s="16"/>
       <c r="F90" s="6"/>
     </row>
+    <row r="91" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A91" s="6"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A92" s="6"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A93" s="6"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A94" s="6"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="888" windowWidth="20568" windowHeight="10728"/>
+    <workbookView xWindow="240" yWindow="948" windowWidth="20568" windowHeight="10668"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在同一个 page 层级下，下层元素的 custom 自动继承上一个元素的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>灰色背景的行，为通用预定义元素，请勿删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>custom 列一般用作页面有 frame 的情况，如果元素不在默认 frame，需要填写该元素的 frame id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,10 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class='filters']//ul[@class="content"]/li[#]//span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//a[@class="logo"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,19 +405,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//li/form/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//a[text()='#']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//li/form/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入文件上传</t>
+    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]/div/div[@class="sys-formx"]/div/div/div[@class='filters']//ul[@class="content"]/li[#]//span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom 列一般用作页面有 frame 的情况，如果元素不在默认 frame，需要填写该元素的 frame id,在同一个 page 层级下，下层元素的 custom 自动继承上一个元素的值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1004,9 +1000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1044,57 +1040,55 @@
         <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="3"/>
@@ -1102,13 +1096,13 @@
     <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="3"/>
@@ -1116,13 +1110,13 @@
     <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="3"/>
@@ -1130,13 +1124,13 @@
     <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="3"/>
@@ -1144,13 +1138,13 @@
     <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="3"/>
@@ -1158,13 +1152,13 @@
     <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="3"/>
@@ -1172,13 +1166,13 @@
     <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="3"/>
@@ -1186,13 +1180,13 @@
     <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="3"/>
@@ -1200,10 +1194,10 @@
     <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>8</v>
@@ -1214,13 +1208,13 @@
     <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="3"/>
@@ -1228,13 +1222,13 @@
     <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="3"/>
@@ -1242,11 +1236,11 @@
     <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="3"/>
@@ -1254,11 +1248,11 @@
     <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="3"/>
@@ -1266,13 +1260,13 @@
     <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1280,123 +1274,123 @@
     <row r="19" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1404,13 +1398,13 @@
     <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1418,127 +1412,127 @@
     <row r="28" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1546,13 +1540,13 @@
     <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1560,13 +1554,13 @@
     <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="948" windowWidth="20568" windowHeight="10668"/>
+    <workbookView xWindow="240" yWindow="1008" windowWidth="20568" windowHeight="10608"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <definedName name="产品管理系统首页">#REF!</definedName>
     <definedName name="通用" localSheetId="0">elements!#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
-    <definedName name="页面" localSheetId="0">elements!$A$35:$A$35</definedName>
+    <definedName name="页面" localSheetId="0">elements!$A$38:$A$38</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,111 +221,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>logo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1根节点，2子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉的数据，参数为第n条数据，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧树#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项值#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项值#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉的数据，根据内容选择，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="sub"]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup"]//span[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li[#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li/span[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr/td/span/div[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="nav"]//span[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="radiogroup r1"]/span[text()='#']/following-sibling::span/div/ul/li[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数是按钮名称，选择第一个选项；例如是否启用的选择按钮，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数是按钮名称，选择第一个选项。例如：功能位置中选择所属模块的复选框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在列表中查找是否包含该参数的数据，参数为列表字段值，比如：#设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表除导入外的按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//li/form/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]/div/div[@class="sys-formx"]/div/div/div[@class='filters']//ul[@class="content"]/li[#]//span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom 列一般用作页面有 frame 的情况，如果元素不在默认 frame，需要填写该元素的 frame id,在同一个 page 层级下，下层元素的 custom 自动继承上一个元素的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>//div[@class="fixed"]/div/input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1根节点，2子节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//a[@class="logo"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉的数据，参数为第n条数据，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧树#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择项#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉选择项#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉选择项值#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择项值#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出的文本选择框，根据内容选择，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出的文本选择框，参数为第n条数据，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉的数据，根据内容选择，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="sub"]//a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup"]//span[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li[#]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li/span[text()='#']</t>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//div[@class="sl-flipper"]/span[@class="full" and text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]/div[@class="layout"]//div[@class="opts form"]//div[@class="datas"]/div[@class="table"]//div[@class="body"]/table/tbody//td/span/div[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表条目统计#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="checkgroup exists r1"]/span[text()='所属模块']/following-sibling::span/div/ul/li[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出的文本选择框，参数为第n条数据，需双击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出的文本选择框，根据内容选择，需双击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为按钮名称，选择第一个选项，用于卡片中的复选框。例如：功能位置中选择所属模块的复选框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表字段值#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为字段列的内容，用于列表中选择或查询数据，需点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="datas"]/div[@class="table"]/div/div[@class="body"]/table/tbody/tr/td/span/div[text()='#']/../../../td[1]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表数据#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -333,99 +425,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr/td/span/div[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子表按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="nav"]//span[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="opts"]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="radiogroup r1"]/span[text()='#']/following-sibling::span/div/ul/li[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="checkgroup exists r1"]/span[text()='所属模块']/following-sibling::span/div/ul/li[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数是按钮名称，选择第一个选项；例如是否启用的选择按钮，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数是按钮名称，选择第一个选项。例如：功能位置中选择所属模块的复选框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复选按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表条目统计#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于检查统计的条目，例如参数为：全部 1 条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//div[@class="sl-flipper"]/span[@class="full" and text()="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]/div[@class="layout"]//div[@class="opts form"]//div[@class="datas"]/div[@class="table"]//div[@class="body"]/table/tbody//td/span/div[text()='设备']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表字段值#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在列表中查找是否包含该参数的数据，参数为列表字段值，比如：#设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表除导入外的按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子表除导入外的按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入文件上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//li/form/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]/div/div[@class="sys-formx"]/div/div/div[@class='filters']//ul[@class="content"]/li[#]//span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>custom 列一般用作页面有 frame 的情况，如果元素不在默认 frame，需要填写该元素的 frame id,在同一个 page 层级下，下层元素的 custom 自动继承上一个元素的值</t>
+    <t>//body/div[@class="sl-popup model"][last()]//div[@class="footer clearfix"]/div[@class="opts"]/div/ul/li/a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话框#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为对话框的按钮名称，点击使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="searchexpand"]
+//div/table/tbody/tr/td/span[text()='组织名称']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为查询字段的名称，用于列表查询，需点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询输入框#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//div[@class="opts"]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="sl-flipper"]/span[@class="full" and text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表页适用：用于检查统计的条目，例如参数为：全部 1 条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片页适用用于检查统计的条目，例如参数为：全部 1 条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +512,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -625,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -667,6 +712,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -998,11 +1046,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>12</v>
@@ -1062,7 +1110,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1260,13 +1308,13 @@
     <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1274,235 +1322,235 @@
     <row r="19" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -1514,103 +1562,137 @@
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A40" s="5"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+    <row r="41" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1625,16 +1707,16 @@
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="3"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="3"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1698,32 +1780,32 @@
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A55" s="6"/>
+      <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="4"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A56" s="6"/>
+      <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="4"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A57" s="6"/>
+      <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="6"/>
@@ -1734,292 +1816,316 @@
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="7"/>
+      <c r="A59" s="6"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="14"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="13"/>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A60" s="7"/>
-      <c r="B60" s="3"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="15"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="13"/>
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A61" s="7"/>
-      <c r="B61" s="3"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="15"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="13"/>
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A62" s="7"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="6"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A63" s="6"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="6"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="4"/>
     </row>
     <row r="64" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A64" s="6"/>
+      <c r="A64" s="7"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="6"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A65" s="6"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="17"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="16"/>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="6"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="6"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="3"/>
       <c r="E66" s="16"/>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="6"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="17"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="16"/>
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="6"/>
-      <c r="B68" s="3"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="16"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="17"/>
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="6"/>
-      <c r="B69" s="5"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="17"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="16"/>
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="6"/>
-      <c r="B70" s="3"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="16"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="17"/>
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="6"/>
-      <c r="B71" s="5"/>
+      <c r="B71" s="3"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="17"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="16"/>
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="6"/>
-      <c r="B72" s="3"/>
+      <c r="B72" s="5"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="16"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="17"/>
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="6"/>
-      <c r="B73" s="5"/>
+      <c r="B73" s="3"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="17"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="16"/>
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="6"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="5"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="16"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="17"/>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="6"/>
-      <c r="B75" s="5"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="17"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="16"/>
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="6"/>
-      <c r="B76" s="3"/>
+      <c r="B76" s="5"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="16"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="17"/>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="6"/>
-      <c r="B77" s="5"/>
+      <c r="B77" s="3"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="17"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="16"/>
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="6"/>
-      <c r="B78" s="3"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="16"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="17"/>
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="6"/>
-      <c r="B79" s="5"/>
+      <c r="B79" s="3"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="17"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="16"/>
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="6"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="16"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="17"/>
       <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="6"/>
-      <c r="B81" s="5"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="17"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="16"/>
       <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="6"/>
-      <c r="B82" s="3"/>
+      <c r="B82" s="5"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="16"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="17"/>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="6"/>
-      <c r="B83" s="5"/>
+      <c r="B83" s="3"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="17"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="16"/>
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="6"/>
-      <c r="B84" s="3"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="16"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="17"/>
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="6"/>
-      <c r="B85" s="5"/>
+      <c r="B85" s="3"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="17"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="16"/>
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="6"/>
-      <c r="B86" s="3"/>
+      <c r="B86" s="5"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="16"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="17"/>
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="6"/>
-      <c r="B87" s="5"/>
+      <c r="B87" s="3"/>
       <c r="C87" s="6"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="17"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="16"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="6"/>
-      <c r="B88" s="3"/>
+      <c r="B88" s="5"/>
       <c r="C88" s="6"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="16"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="17"/>
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="6"/>
-      <c r="B89" s="5"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="17"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="16"/>
       <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="6"/>
-      <c r="B90" s="3"/>
+      <c r="B90" s="5"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="16"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="17"/>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="6"/>
-      <c r="B91" s="5"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="6"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="17"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="16"/>
       <c r="F91" s="6"/>
     </row>
     <row r="92" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="6"/>
-      <c r="B92" s="3"/>
+      <c r="B92" s="5"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="16"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="17"/>
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="6"/>
-      <c r="B93" s="5"/>
+      <c r="B93" s="3"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="17"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="16"/>
       <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="6"/>
-      <c r="B94" s="3"/>
+      <c r="B94" s="5"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="16"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="17"/>
       <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A95" s="6"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A96" s="6"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A97" s="6"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1008" windowWidth="20568" windowHeight="10608"/>
+    <workbookView xWindow="240" yWindow="1068" windowWidth="20568" windowHeight="10548"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <definedName name="产品管理系统首页">#REF!</definedName>
     <definedName name="通用" localSheetId="0">elements!#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
-    <definedName name="页面" localSheetId="0">elements!$A$38:$A$38</definedName>
+    <definedName name="页面" localSheetId="0">elements!$A$40:$A$40</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,10 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="sub"]//a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[@class="sl-popup"]//span[text()='#']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,18 +317,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="radiogroup r1"]/span[text()='#']/following-sibling::span/div/ul/li[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数是按钮名称，选择第一个选项；例如是否启用的选择按钮，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数是按钮名称，选择第一个选项。例如：功能位置中选择所属模块的复选框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>复选按钮#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,18 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入文件上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//li/form/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]/div/div[@class="sys-formx"]/div/div/div[@class='filters']//ul[@class="content"]/li[#]//span</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,18 +357,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列表条目统计#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="checkgroup exists r1"]/span[text()='所属模块']/following-sibling::span/div/ul/li[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出的文本选择框，参数为第n条数据，需双击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,10 +386,6 @@
   </si>
   <si>
     <t>列表数据#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr[#]/td[@col="index"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -463,6 +427,62 @@
   </si>
   <si>
     <t>卡片页适用用于检查统计的条目，例如参数为：全部 1 条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="checkgroup exists r1"]/span[text()='所属模块']/following-sibling::span/div/ul/li[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="sub"]//div[@class="sys-funcx" and @style=""]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div/ul/li[@class="sl-tabitemx selected" and text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主子表的页签，参数为页签名称，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="radiogroup r1"]/span[text()='#']/following-sibling::span/div/ul/li[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//li/form/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr[#]/td[@col="index"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="content"]//li/form/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入模板文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入附件上次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1046,11 +1066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1130,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1314,7 +1334,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1328,7 +1348,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1336,65 +1356,65 @@
     <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -1406,7 +1426,7 @@
         <v>51</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
@@ -1416,289 +1436,297 @@
     <row r="25" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A37" s="3"/>
       <c r="B37" s="19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="5"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
       <c r="D44" s="5"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1707,8 +1735,8 @@
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1723,8 +1751,8 @@
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="3"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1804,16 +1832,16 @@
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A58" s="6"/>
+      <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="6"/>
@@ -1840,19 +1868,19 @@
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A62" s="7"/>
+      <c r="A62" s="6"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="14"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="13"/>
       <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A63" s="7"/>
-      <c r="B63" s="3"/>
+      <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="15"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="4"/>
     </row>
     <row r="64" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1866,14 +1894,14 @@
     <row r="65" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="7"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="6"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A66" s="6"/>
-      <c r="B66" s="5"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="3"/>
       <c r="C66" s="7"/>
       <c r="D66" s="3"/>
       <c r="E66" s="16"/>
@@ -1881,7 +1909,7 @@
     </row>
     <row r="67" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="6"/>
-      <c r="B67" s="3"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="7"/>
       <c r="D67" s="3"/>
       <c r="E67" s="16"/>
@@ -1889,243 +1917,251 @@
     </row>
     <row r="68" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="6"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="17"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="16"/>
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="6"/>
-      <c r="B69" s="3"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="16"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="17"/>
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="6"/>
-      <c r="B70" s="5"/>
+      <c r="B70" s="3"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="17"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="16"/>
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="6"/>
-      <c r="B71" s="3"/>
+      <c r="B71" s="5"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="16"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="17"/>
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="6"/>
-      <c r="B72" s="5"/>
+      <c r="B72" s="3"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="17"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="16"/>
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="6"/>
-      <c r="B73" s="3"/>
+      <c r="B73" s="5"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="16"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="17"/>
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="6"/>
-      <c r="B74" s="5"/>
+      <c r="B74" s="3"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="17"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="16"/>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="6"/>
-      <c r="B75" s="3"/>
+      <c r="B75" s="5"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="16"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="17"/>
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="6"/>
-      <c r="B76" s="5"/>
+      <c r="B76" s="3"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="17"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="16"/>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="6"/>
-      <c r="B77" s="3"/>
+      <c r="B77" s="5"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="16"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="17"/>
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="6"/>
-      <c r="B78" s="5"/>
+      <c r="B78" s="3"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="17"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="16"/>
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="6"/>
-      <c r="B79" s="3"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="16"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="17"/>
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="6"/>
-      <c r="B80" s="5"/>
+      <c r="B80" s="3"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="17"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="16"/>
       <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="6"/>
-      <c r="B81" s="3"/>
+      <c r="B81" s="5"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="16"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="17"/>
       <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="6"/>
-      <c r="B82" s="5"/>
+      <c r="B82" s="3"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="17"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="16"/>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="6"/>
-      <c r="B83" s="3"/>
+      <c r="B83" s="5"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="16"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="17"/>
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="6"/>
-      <c r="B84" s="5"/>
+      <c r="B84" s="3"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="17"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="16"/>
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="6"/>
-      <c r="B85" s="3"/>
+      <c r="B85" s="5"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="16"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="17"/>
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="6"/>
-      <c r="B86" s="5"/>
+      <c r="B86" s="3"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="17"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="16"/>
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="6"/>
-      <c r="B87" s="3"/>
+      <c r="B87" s="5"/>
       <c r="C87" s="6"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="16"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="17"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="6"/>
-      <c r="B88" s="5"/>
+      <c r="B88" s="3"/>
       <c r="C88" s="6"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="17"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="16"/>
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="6"/>
-      <c r="B89" s="3"/>
+      <c r="B89" s="5"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="16"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="17"/>
       <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="6"/>
-      <c r="B90" s="5"/>
+      <c r="B90" s="3"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="17"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="16"/>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="6"/>
-      <c r="B91" s="3"/>
+      <c r="B91" s="5"/>
       <c r="C91" s="6"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="16"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="17"/>
       <c r="F91" s="6"/>
     </row>
     <row r="92" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="6"/>
-      <c r="B92" s="5"/>
+      <c r="B92" s="3"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="17"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="16"/>
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="6"/>
-      <c r="B93" s="3"/>
+      <c r="B93" s="5"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="16"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="17"/>
       <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="6"/>
-      <c r="B94" s="5"/>
+      <c r="B94" s="3"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="17"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="16"/>
       <c r="F94" s="6"/>
     </row>
     <row r="95" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="6"/>
-      <c r="B95" s="3"/>
+      <c r="B95" s="5"/>
       <c r="C95" s="6"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="16"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="17"/>
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="6"/>
-      <c r="B96" s="5"/>
+      <c r="B96" s="3"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="17"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="16"/>
       <c r="F96" s="6"/>
     </row>
     <row r="97" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="6"/>
-      <c r="B97" s="3"/>
+      <c r="B97" s="5"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="16"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="17"/>
       <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A98" s="6"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1068" windowWidth="20568" windowHeight="10548"/>
+    <workbookView xWindow="240" yWindow="1128" windowWidth="20568" windowHeight="10488"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="122">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下拉的数据，参数为第n条数据，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>页面title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提示#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出选择项#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class="sl-popup"]//span[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li[#]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,14 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="nav"]//span[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数是按钮名称，选择第一个选项；例如是否启用的选择按钮，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>复选按钮#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,10 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]/div/div[@class="sys-formx"]/div/div/div[@class='filters']//ul[@class="content"]/li[#]//span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>custom 列一般用作页面有 frame 的情况，如果元素不在默认 frame，需要填写该元素的 frame id,在同一个 page 层级下，下层元素的 custom 自动继承上一个元素的值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,15 +337,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>弹出的文本选择框，参数为第n条数据，需双击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出的文本选择框，根据内容选择，需双击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为按钮名称，选择第一个选项，用于卡片中的复选框。例如：功能位置中选择所属模块的复选框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -430,7 +398,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="checkgroup exists r1"]/span[text()='所属模块']/following-sibling::span/div/ul/li[1]</t>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="sub"]//div[@class="sys-funcx" and @style=""]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div/ul/li[@class="sl-tabitemx selected" and text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主子表的页签，参数为页签名称，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//li/form/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr[#]/td[@col="index"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="content"]//li/form/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入模板文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入附件上次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出的文本选择框，参数为索引，表示第n条数据，需双击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉的数据，参数为索引，表示第n条数据，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="radiogroup r1"]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="checkgroup exists r1"]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2个：按钮名称，选项名称；卡片中的复选框选择。如：功能位置中所属模块选择设备，参数为：#所属模块#设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2个:按钮名称，选项名称；例如是否启用的选择按钮参数为:#是否启用#是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="nav"]//span[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]/div/div[@class="sys-formx"]/div/div/div[@class='filters']//ul[@class="content"]/li[#]//span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限配置页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="role"]//ul/li[#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色树#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为索引，表示第n条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="opt"]//ul/li[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能树的第一条数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -438,51 +506,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="sub"]//div[@class="sys-funcx" and @style=""]//a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div/ul/li[@class="sl-tabitemx selected" and text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主子表的页签，参数为页签名称，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="radiogroup r1"]/span[text()='#']/following-sibling::span/div/ul/li[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//li/form/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr[#]/td[@col="index"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="content"]//li/form/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入模板文件上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入附件上次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件导入</t>
+    <t>提示#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup"]//span[contains(text(),'#')]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,18 +1097,18 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="58.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="89.88671875" customWidth="1"/>
+    <col min="6" max="6" width="101.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1108,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>12</v>
@@ -1130,7 +1158,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1328,13 +1356,13 @@
     <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1342,13 +1370,13 @@
     <row r="19" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1356,77 +1384,77 @@
     <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
@@ -1436,33 +1464,33 @@
     <row r="25" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -1474,7 +1502,7 @@
         <v>49</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
@@ -1484,27 +1512,27 @@
     <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1512,163 +1540,163 @@
     <row r="30" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1715,26 +1743,44 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+    <row r="43" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F43" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="5"/>
+      <c r="B44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="5"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1128" windowWidth="20568" windowHeight="10488"/>
+    <workbookView xWindow="240" yWindow="1248" windowWidth="20568" windowHeight="10368"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -16,14 +16,15 @@
     <definedName name="产品管理系统首页">#REF!</definedName>
     <definedName name="通用" localSheetId="0">elements!#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
-    <definedName name="页面" localSheetId="0">elements!$A$40:$A$40</definedName>
+    <definedName name="页面" localSheetId="0">elements!$A$47:$A$47</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="145">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class="login_button clearfix"]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>菜单#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按钮#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左侧树#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出选择项#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,18 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li[#]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li/span[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr/td/span/div[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>子表按钮#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,26 +278,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复选按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在列表中查找是否包含该参数的数据，参数为列表字段值，比如：#设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子表除导入外的按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>custom 列一般用作页面有 frame 的情况，如果元素不在默认 frame，需要填写该元素的 frame id,在同一个 page 层级下，下层元素的 custom 自动继承上一个元素的值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡片页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[@class="fixed"]/div/input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,18 +319,6 @@
   </si>
   <si>
     <t>列表数据#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//body/div[@class="sl-popup model"][last()]//div[@class="footer clearfix"]/div[@class="opts"]/div/ul/li/a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话框#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为对话框的按钮名称，点击使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -382,39 +335,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="sl-flipper"]/span[@class="full" and text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表页适用：用于检查统计的条目，例如参数为：全部 1 条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片页适用用于检查统计的条目，例如参数为：全部 1 条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="sub"]//div[@class="sys-funcx" and @style=""]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主子表的页签，参数为页签名称，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//li/form/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="content"]//li/form/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入模板文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入附件上次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出的文本选择框，参数为索引，表示第n条数据，需双击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉的数据，参数为索引，表示第n条数据，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="radiogroup r1"]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="checkgroup exists r1"]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2个：按钮名称，选项名称；卡片中的复选框选择。如：功能位置中所属模块选择设备，参数为：#所属模块#设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2个:按钮名称，选项名称；例如是否启用的选择按钮参数为:#是否启用#是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="nav"]//span[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]/div/div[@class="sys-formx"]/div/div/div[@class='filters']//ul[@class="content"]/li[#]//span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限配置页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="role"]//ul/li[#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色树#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为索引，表示第n条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="opt"]//ul/li[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能树的第一条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li[#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话框按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为对话框的按钮名称，点击使用，比如确认是否删除的对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//body/div[@class="sl-popup model"][last()]//div[@class="footer clearfix"]/div[@class="opts"]/div/ul/li/a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间选择控件的确定按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时加按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时减按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间选择控件，点击小时数加1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间选择控件，点击小时数减1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧树#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div/ul/li[@class="sl-tabitemx selected" and text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页签#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup"]//span[contains(text(),'#')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为提示信息，可模糊匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="login_button clearfix"]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭附件弹框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//div[@class="opts"]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="sl-flipper"]/span[@class="full" and text()="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表页适用：用于检查统计的条目，例如参数为：全部 1 条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡片页适用用于检查统计的条目，例如参数为：全部 1 条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="sub"]//div[@class="sys-funcx" and @style=""]//a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div/ul/li[@class="sl-tabitemx selected" and text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主子表的页签，参数为页签名称，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//li/form/a</t>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr/td/span/div[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li/span[text()='#']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -422,95 +559,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表按钮（导入除外）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片和列表中的按钮（子表按钮和导入按钮除外）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批流对话框中的输入框，需点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="content"]//li/form/a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导入模板文件上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入附件上次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出的文本选择框，参数为索引，表示第n条数据，需双击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉的数据，参数为索引，表示第n条数据，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="radiogroup r1"]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="checkgroup exists r1"]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数2个：按钮名称，选项名称；卡片中的复选框选择。如：功能位置中所属模块选择设备，参数为：#所属模块#设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数2个:按钮名称，选项名称；例如是否启用的选择按钮参数为:#是否启用#是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="nav"]//span[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]/div/div[@class="sys-formx"]/div/div/div[@class='filters']//ul[@class="content"]/li[#]//span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限配置页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="role"]//ul/li[#]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色树#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为索引，表示第n条数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="opt"]//ul/li[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能树的第一条数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup"]//span[contains(text(),'#')]</t>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="close"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div//li/a[text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +660,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1094,17 +1186,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" customWidth="1"/>
     <col min="4" max="4" width="39.5546875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -1136,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>12</v>
@@ -1158,7 +1250,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1203,7 +1295,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="10" t="s">
         <v>23</v>
@@ -1231,7 +1323,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
         <v>27</v>
@@ -1356,169 +1448,171 @@
     <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>56</v>
+      <c r="B19" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>88</v>
+      <c r="B23" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1526,317 +1620,379 @@
     <row r="29" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="19" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A40" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F40" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A42" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="B42" s="3" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="F42" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="5"/>
-      <c r="B44" s="3" t="s">
-        <v>113</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>117</v>
+      <c r="D44" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="5"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="3"/>
+    <row r="46" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
+      <c r="A47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+    <row r="49" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+    <row r="50" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F50" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="B51" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="5"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1845,16 +2001,16 @@
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="3"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12"/>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="3"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1886,328 +2042,384 @@
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="6"/>
+      <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="4"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A60" s="6"/>
+      <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="4"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A61" s="6"/>
+      <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="4"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A62" s="6"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="4"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A63" s="7"/>
+      <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="4"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A64" s="7"/>
-      <c r="B64" s="3"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="4"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A65" s="7"/>
-      <c r="B65" s="3"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="4"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A66" s="7"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="6"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="6"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="6"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="6"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="6"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="6"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="6"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A70" s="6"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="6"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A71" s="6"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="6"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A72" s="6"/>
+      <c r="A72" s="7"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="6"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A73" s="6"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="17"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="16"/>
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="6"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="6"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="3"/>
       <c r="E74" s="16"/>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="6"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="17"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="16"/>
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="6"/>
-      <c r="B76" s="3"/>
+      <c r="B76" s="5"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="16"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="17"/>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="6"/>
-      <c r="B77" s="5"/>
+      <c r="B77" s="3"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="17"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="16"/>
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="6"/>
-      <c r="B78" s="3"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="16"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="17"/>
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="6"/>
-      <c r="B79" s="5"/>
+      <c r="B79" s="3"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="17"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="16"/>
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="6"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="16"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="17"/>
       <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="6"/>
-      <c r="B81" s="5"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="17"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="16"/>
       <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="6"/>
-      <c r="B82" s="3"/>
+      <c r="B82" s="5"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="16"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="17"/>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="6"/>
-      <c r="B83" s="5"/>
+      <c r="B83" s="3"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="17"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="16"/>
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="6"/>
-      <c r="B84" s="3"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="16"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="17"/>
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="6"/>
-      <c r="B85" s="5"/>
+      <c r="B85" s="3"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="17"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="16"/>
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="6"/>
-      <c r="B86" s="3"/>
+      <c r="B86" s="5"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="16"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="17"/>
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="6"/>
-      <c r="B87" s="5"/>
+      <c r="B87" s="3"/>
       <c r="C87" s="6"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="17"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="16"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="6"/>
-      <c r="B88" s="3"/>
+      <c r="B88" s="5"/>
       <c r="C88" s="6"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="16"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="17"/>
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="6"/>
-      <c r="B89" s="5"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="17"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="16"/>
       <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="6"/>
-      <c r="B90" s="3"/>
+      <c r="B90" s="5"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="16"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="17"/>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="6"/>
-      <c r="B91" s="5"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="6"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="17"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="16"/>
       <c r="F91" s="6"/>
     </row>
     <row r="92" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="6"/>
-      <c r="B92" s="3"/>
+      <c r="B92" s="5"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="16"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="17"/>
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="6"/>
-      <c r="B93" s="5"/>
+      <c r="B93" s="3"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="17"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="16"/>
       <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="6"/>
-      <c r="B94" s="3"/>
+      <c r="B94" s="5"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="16"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="17"/>
       <c r="F94" s="6"/>
     </row>
     <row r="95" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="6"/>
-      <c r="B95" s="5"/>
+      <c r="B95" s="3"/>
       <c r="C95" s="6"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="17"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="16"/>
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="6"/>
-      <c r="B96" s="3"/>
+      <c r="B96" s="5"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="16"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="17"/>
       <c r="F96" s="6"/>
     </row>
     <row r="97" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="6"/>
-      <c r="B97" s="5"/>
+      <c r="B97" s="3"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="17"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="16"/>
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="6"/>
-      <c r="B98" s="3"/>
+      <c r="B98" s="5"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="16"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="17"/>
       <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A99" s="6"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A100" s="6"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A101" s="6"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A102" s="6"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A103" s="6"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A104" s="6"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A105" s="6"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -1189,8 +1189,8 @@
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1248" windowWidth="20568" windowHeight="10368"/>
+    <workbookView xWindow="240" yWindow="1308" windowWidth="20568" windowHeight="10308"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="产品管理系统首页">#REF!</definedName>
     <definedName name="通用" localSheetId="0">elements!#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
-    <definedName name="页面" localSheetId="0">elements!$A$47:$A$47</definedName>
+    <definedName name="页面" localSheetId="0">elements!$A$49:$A$49</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="147">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,228 +322,284 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>参数为查询字段的名称，用于列表查询，需点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询输入框#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="sl-flipper"]/span[@class="full" and text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表页适用：用于检查统计的条目，例如参数为：全部 1 条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片页适用用于检查统计的条目，例如参数为：全部 1 条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="sub"]//div[@class="sys-funcx" and @style=""]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主子表的页签，参数为页签名称，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//li/form/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="content"]//li/form/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入模板文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入附件上次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出的文本选择框，参数为索引，表示第n条数据，需双击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉的数据，参数为索引，表示第n条数据，可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="radiogroup r1"]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="checkgroup exists r1"]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2个：按钮名称，选项名称；卡片中的复选框选择。如：功能位置中所属模块选择设备，参数为：#所属模块#设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2个:按钮名称，选项名称；例如是否启用的选择按钮参数为:#是否启用#是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="nav"]//span[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]/div/div[@class="sys-formx"]/div/div/div[@class='filters']//ul[@class="content"]/li[#]//span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限配置页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="role"]//ul/li[#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色树#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为索引，表示第n条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="opt"]//ul/li[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能树的第一条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li[#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话框按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为对话框的按钮名称，点击使用，比如确认是否删除的对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//body/div[@class="sl-popup model"][last()]//div[@class="footer clearfix"]/div[@class="opts"]/div/ul/li/a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间选择控件的确定按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时加按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时减按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间选择控件，点击小时数加1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间选择控件，点击小时数减1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧树#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div/ul/li[@class="sl-tabitemx selected" and text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页签#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup"]//span[contains(text(),'#')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为提示信息，可模糊匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="login_button clearfix"]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭附件弹框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//div[@class="opts"]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr[#]/td[@col="index"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表按钮（导入除外）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片和列表中的按钮（子表按钮和导入按钮除外）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批流对话框中的输入框，需点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="content"]//li/form/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="close"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div//li/a[text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="searchexpand"]
-//div/table/tbody/tr/td/span[text()='组织名称']/following-sibling::span[1]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为查询字段的名称，用于列表查询，需点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询输入框#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="sl-flipper"]/span[@class="full" and text()="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表页适用：用于检查统计的条目，例如参数为：全部 1 条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡片页适用用于检查统计的条目，例如参数为：全部 1 条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="sub"]//div[@class="sys-funcx" and @style=""]//a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主子表的页签，参数为页签名称，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//li/form/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="content"]//li/form/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入模板文件上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入附件上次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出的文本选择框，参数为索引，表示第n条数据，需双击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉的数据，参数为索引，表示第n条数据，可点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="radiogroup r1"]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="checkgroup exists r1"]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数2个：按钮名称，选项名称；卡片中的复选框选择。如：功能位置中所属模块选择设备，参数为：#所属模块#设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数2个:按钮名称，选项名称；例如是否启用的选择按钮参数为:#是否启用#是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="nav"]//span[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]/div/div[@class="sys-formx"]/div/div/div[@class='filters']//ul[@class="content"]/li[#]//span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限配置页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="role"]//ul/li[#]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色树#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为索引，表示第n条数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="opt"]//ul/li[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能树的第一条数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li[#]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话框按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为对话框的按钮名称，点击使用，比如确认是否删除的对话框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//body/div[@class="sl-popup model"][last()]//div[@class="footer clearfix"]/div[@class="opts"]/div/ul/li/a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间选择控件的确定按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时加按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时减按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间选择控件，点击小时数加1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间选择控件，点击小时数减1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复选按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧树#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div/ul/li[@class="sl-tabitemx selected" and text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页签#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup"]//span[contains(text(),'#')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为提示信息，可模糊匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="login_button clearfix"]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭附件弹框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡片页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//div[@class="opts"]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
+//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li/span[text()='#']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -551,59 +607,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li/span[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr[#]/td[@col="index"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子表按钮（导入除外）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡片和列表中的按钮（子表按钮和导入按钮除外）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批流对话框中的输入框，需点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]//a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="content"]//li/form/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model"][last()]//div[@class="close"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div//li/a[text()="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#</t>
+    <t>大文本输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div/div/textarea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1186,11 +1194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1448,13 +1456,13 @@
     <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1468,11 +1476,11 @@
         <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1484,11 +1492,11 @@
         <v>48</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -1500,27 +1508,27 @@
         <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -1532,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
@@ -1542,29 +1550,29 @@
     <row r="24" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
@@ -1574,33 +1582,33 @@
     <row r="26" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1617,244 +1625,242 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
-      <c r="B37" s="19" t="s">
-        <v>68</v>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
-        <v>118</v>
+      <c r="B38" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>140</v>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
-        <v>107</v>
+      <c r="A40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="B43" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -1862,171 +1868,187 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>52</v>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
-        <v>144</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="19" t="s">
+      <c r="F45" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="3" t="s">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="3" t="s">
-        <v>94</v>
-      </c>
+    <row r="50" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="5"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="5"/>
+      <c r="B53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="12"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="3"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="3"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2098,24 +2120,24 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A66" s="6"/>
+      <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="4"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A67" s="6"/>
+      <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="6"/>
@@ -2134,47 +2156,47 @@
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A70" s="7"/>
+      <c r="A70" s="6"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="14"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="13"/>
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A71" s="7"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="15"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="13"/>
       <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="7"/>
-      <c r="B72" s="3"/>
+      <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="15"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="14"/>
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="7"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="6"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A74" s="6"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="6"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A75" s="6"/>
+      <c r="A75" s="7"/>
       <c r="B75" s="3"/>
       <c r="C75" s="7"/>
       <c r="D75" s="3"/>
@@ -2184,15 +2206,15 @@
     <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="6"/>
       <c r="B76" s="5"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="17"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="16"/>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="6"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="6"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="3"/>
       <c r="E77" s="16"/>
       <c r="F77" s="6"/>
@@ -2421,6 +2443,22 @@
       <c r="E105" s="16"/>
       <c r="F105" s="6"/>
     </row>
+    <row r="106" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A106" s="6"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A107" s="6"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1308" windowWidth="20568" windowHeight="10308"/>
+    <workbookView xWindow="240" yWindow="1428" windowWidth="20568" windowHeight="10188"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -16,15 +16,15 @@
     <definedName name="产品管理系统首页">#REF!</definedName>
     <definedName name="通用" localSheetId="0">elements!#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
-    <definedName name="页面" localSheetId="0">elements!$A$49:$A$49</definedName>
+    <definedName name="页面" localSheetId="0">elements!$A$53:$A$53</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="158">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,14 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页面url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>alert#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>弹出选择项#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下拉选择项#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在列表中查找是否包含该参数的数据，参数为列表字段值，比如：#设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>custom 列一般用作页面有 frame 的情况，如果元素不在默认 frame，需要填写该元素的 frame id,在同一个 page 层级下，下层元素的 custom 自动继承上一个元素的值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]/div[@class="layout"]//div[@class="opts form"]//div[@class="datas"]/div[@class="table"]//div[@class="body"]/table/tbody//td/span/div[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列表条目统计#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,30 +282,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列表字段值#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为字段列的内容，用于列表中选择或查询数据，需点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="datas"]/div[@class="table"]/div/div[@class="body"]/table/tbody/tr/td/span/div[text()='#']/../../../td[1]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表数据#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数为查询字段的名称，用于列表查询，需点击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询输入框#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="sl-flipper"]/span[@class="full" and text()="#"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,231 +322,211 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>弹出的文本选择框，参数为索引，表示第n条数据，需双击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下拉的数据，参数为索引，表示第n条数据，可点击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="radiogroup r1"]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
+    <t>参数2个:按钮名称，选项名称；例如是否启用的选择按钮参数为:#是否启用#是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="nav"]//span[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]/div/div[@class="sys-formx"]/div/div/div[@class='filters']//ul[@class="content"]/li[#]//span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限配置页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="role"]//ul/li[#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色树#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为索引，表示第n条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="opt"]//ul/li[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能树的第一条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话框按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为对话框的按钮名称，点击使用，比如确认是否删除的对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//body/div[@class="sl-popup model"][last()]//div[@class="footer clearfix"]/div[@class="opts"]/div/ul/li/a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间选择控件的确定按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间选择控件，点击小时数加1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间选择控件，点击小时数减1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧树#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div/ul/li[@class="sl-tabitemx selected" and text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页签#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为提示信息，可模糊匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="login_button clearfix"]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭附件弹框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//div[@class="opts"]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表按钮（导入除外）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片和列表中的按钮（子表按钮和导入按钮除外）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批流对话框中的输入框，需点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="content"]//li/form/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="close"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li/span[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr/td/span/div[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大文本输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div/div/textarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时减按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup"]//span[contains(text(),'#')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2个：按钮名称，选项名称；卡片中的复选框选择。如：功能位置中所属模块选择设备，参数为：#所属模块#设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="checkgroup exists r1"]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数2个：按钮名称，选项名称；卡片中的复选框选择。如：功能位置中所属模块选择设备，参数为：#所属模块#设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数2个:按钮名称，选项名称；例如是否启用的选择按钮参数为:#是否启用#是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="nav"]//span[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]/div/div[@class="sys-formx"]/div/div/div[@class='filters']//ul[@class="content"]/li[#]//span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限配置页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="role"]//ul/li[#]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色树#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为索引，表示第n条数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="opt"]//ul/li[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能树的第一条数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li[#]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话框按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为对话框的按钮名称，点击使用，比如确认是否删除的对话框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//body/div[@class="sl-popup model"][last()]//div[@class="footer clearfix"]/div[@class="opts"]/div/ul/li/a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间选择控件的确定按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时加按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时减按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间选择控件，点击小时数加1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间选择控件，点击小时数减1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复选按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧树#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div/ul/li[@class="sl-tabitemx selected" and text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页签#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup"]//span[contains(text(),'#')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为提示信息，可模糊匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="login_button clearfix"]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭附件弹框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡片页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//div[@class="opts"]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr[#]/td[@col="index"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子表按钮（导入除外）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡片和列表中的按钮（子表按钮和导入按钮除外）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批流对话框中的输入框，需点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]//a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="content"]//li/form/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model"][last()]//div[@class="close"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div//li/a[text()="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -599,19 +535,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li/span[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr/td/span/div[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大文本输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div/div/textarea</t>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="datas"]/div[@class="table"]/div/div[@class="body"]/table/tbody/tr/td/span/div[text()='#']/../../../td[1]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用于列表和子表列表，用于勾选列表中数据的复选框，参数为字段列的内容，需点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询输入框#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询输入框#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项索引#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li[#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于列表中数据的查询，参数为列表中数据的值，可双击选择，比如：#设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于列表中数据的查询，参数为列表中数据的行数，可双击选择，比如：#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项勾选#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]/div[@class="layout"]//div[@class="opts form"]//div[@class="datas"]/div[@class="table"]//div[@class="body"]/table/tbody/tr[#]/td[2]/span/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div//li/a[text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr[#]/td[@col="index"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]/div[@class="layout"]//div[@class="opts form"]//div[@class="datas"]/div[@class="table"]//div[@class="body"]/table/tbody//td/span/div[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项包含#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]/div[@class="layout"]//div[@class="opts form"]//div[@class="datas"]/div[@class="table"]//div[@class="body"]/table/tbody//td/span/div[contains(text(),'#')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr/td/span/div[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//div[@class="head"]/table/thead/tr/th[1]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表数据全选，点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时加按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[contains(@class,"radiogroup")]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +666,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +712,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.14999847407452621"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -818,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -863,6 +915,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1194,19 +1249,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="133.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="101.88671875" customWidth="1"/>
   </cols>
@@ -1236,7 +1291,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>12</v>
@@ -1250,27 +1305,27 @@
     <row r="3" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="10" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="3"/>
@@ -1278,13 +1333,13 @@
     <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="3"/>
@@ -1292,13 +1347,13 @@
     <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="3"/>
@@ -1306,13 +1361,13 @@
     <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="3"/>
@@ -1320,13 +1375,13 @@
     <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="3"/>
@@ -1334,13 +1389,13 @@
     <row r="9" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="3"/>
@@ -1348,13 +1403,13 @@
     <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="3"/>
@@ -1362,13 +1417,13 @@
     <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="3"/>
@@ -1376,13 +1431,13 @@
     <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="3"/>
@@ -1390,10 +1445,10 @@
     <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>8</v>
@@ -1404,13 +1459,13 @@
     <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="3"/>
@@ -1418,13 +1473,13 @@
     <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="3"/>
@@ -1432,11 +1487,11 @@
     <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="3"/>
@@ -1444,11 +1499,11 @@
     <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="3"/>
@@ -1456,13 +1511,13 @@
     <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1470,157 +1525,157 @@
     <row r="19" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>75</v>
+      <c r="B24" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1628,13 +1683,13 @@
     <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1642,427 +1697,459 @@
     <row r="30" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
-        <v>57</v>
+      <c r="B34" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>58</v>
+      <c r="B35" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
-        <v>106</v>
+      <c r="B41" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>107</v>
+      <c r="B42" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>122</v>
+      <c r="A44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>52</v>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="B47" s="3" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>68</v>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>44</v>
+        <v>111</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F49" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F51" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="B53" s="3" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>98</v>
+        <v>4</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="5"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="12"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="B57" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+      <c r="C58" s="3"/>
       <c r="D58" s="5"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -2071,16 +2158,16 @@
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="3"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="3"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2136,101 +2223,101 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A68" s="6"/>
+      <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="4"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A69" s="6"/>
+      <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="4"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A70" s="6"/>
+      <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="4"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A71" s="6"/>
+      <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A72" s="7"/>
+      <c r="A72" s="6"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="14"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="13"/>
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A73" s="7"/>
-      <c r="B73" s="3"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="15"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="13"/>
       <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A74" s="7"/>
-      <c r="B74" s="3"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="15"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="13"/>
       <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A75" s="7"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="6"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A76" s="6"/>
+      <c r="A76" s="7"/>
       <c r="B76" s="5"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="6"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="4"/>
     </row>
     <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A77" s="6"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="6"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A78" s="6"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="6"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A79" s="6"/>
+      <c r="A79" s="7"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="6"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="3"/>
       <c r="E79" s="16"/>
       <c r="F79" s="6"/>
@@ -2238,15 +2325,15 @@
     <row r="80" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="6"/>
       <c r="B80" s="5"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="17"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="16"/>
       <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="6"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="6"/>
+      <c r="C81" s="7"/>
       <c r="D81" s="3"/>
       <c r="E81" s="16"/>
       <c r="F81" s="6"/>
@@ -2459,6 +2546,38 @@
       <c r="E107" s="16"/>
       <c r="F107" s="6"/>
     </row>
+    <row r="108" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A108" s="6"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A109" s="6"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A110" s="6"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="6"/>
+    </row>
+    <row r="111" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A111" s="6"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -1253,7 +1253,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1428" windowWidth="20568" windowHeight="10188"/>
+    <workbookView xWindow="240" yWindow="1488" windowWidth="20568" windowHeight="10128"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="产品管理系统首页">#REF!</definedName>
     <definedName name="通用" localSheetId="0">elements!#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
-    <definedName name="页面" localSheetId="0">elements!$A$53:$A$53</definedName>
+    <definedName name="页面" localSheetId="0">elements!$A$54:$A$54</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="159">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class="fixed"]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//div[@class="sl-flipper"]/span[@class="full" and text()="#"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,14 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//div[@class="opts"]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>子表按钮（导入除外）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,10 +478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li/span[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[@class="sl-popup model"][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr/td/span/div[text()='#']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,14 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小时减按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -527,6 +503,110 @@
   </si>
   <si>
     <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[@class="checkgroup exists r1"]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="datas"]/div[@class="table"]/div/div[@class="body"]/table/tbody/tr/td/span/div[text()='#']/../../../td[1]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用于列表和子表列表，用于勾选列表中数据的复选框，参数为字段列的内容，需点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询输入框#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询输入框#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项索引#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li[#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于列表中数据的查询，参数为列表中数据的值，可双击选择，比如：#设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于列表中数据的查询，参数为列表中数据的行数，可双击选择，比如：#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项勾选#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]/div[@class="layout"]//div[@class="opts form"]//div[@class="datas"]/div[@class="table"]//div[@class="body"]/table/tbody/tr[#]/td[2]/span/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]//a[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr[#]/td[@col="index"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]/div[@class="layout"]//div[@class="opts form"]//div[@class="datas"]/div[@class="table"]//div[@class="body"]/table/tbody//td/span/div[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项包含#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]/div[@class="layout"]//div[@class="opts form"]//div[@class="datas"]/div[@class="table"]//div[@class="body"]/table/tbody//td/span/div[contains(text(),'#')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr/td/span/div[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表数据全选，点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时加按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[contains(@class,"radiogroup")]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -535,55 +615,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="datas"]/div[@class="table"]/div/div[@class="body"]/table/tbody/tr/td/span/div[text()='#']/../../../td[1]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适用于列表和子表列表，用于勾选列表中数据的复选框，参数为字段列的内容，需点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出选择页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询输入框#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询输入框#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项索引#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li[#]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于列表中数据的查询，参数为列表中数据的值，可双击选择，比如：#设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于列表中数据的查询，参数为列表中数据的行数，可双击选择，比如：#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项勾选#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]/div[@class="layout"]//div[@class="opts form"]//div[@class="datas"]/div[@class="table"]//div[@class="body"]/table/tbody/tr[#]/td[2]/span/div</t>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div[@class="func"]//a[text()='#']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -595,47 +631,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]//a[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr[#]/td[@col="index"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]/div[@class="layout"]//div[@class="opts form"]//div[@class="datas"]/div[@class="table"]//div[@class="body"]/table/tbody//td/span/div[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项包含#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]/div[@class="layout"]//div[@class="opts form"]//div[@class="datas"]/div[@class="table"]//div[@class="body"]/table/tbody//td/span/div[contains(text(),'#')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//table/tbody/tr/td/span/div[text()='#']</t>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div//li/a[text()="#"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -647,15 +643,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列表数据全选，点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时加按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[contains(@class,"radiogroup")]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
+    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li/span[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="fixed" and not(contains(@style,"display: none;"))]/div/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//div[@class="opts"]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1249,11 +1253,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1305,10 +1309,10 @@
     <row r="3" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -1386,7 +1390,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
         <v>25</v>
@@ -1417,7 +1421,7 @@
     <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>29</v>
@@ -1511,13 +1515,13 @@
     <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1531,11 +1535,11 @@
         <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1547,11 +1551,11 @@
         <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -1563,27 +1567,27 @@
         <v>24</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -1595,7 +1599,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
@@ -1605,29 +1609,29 @@
     <row r="24" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
@@ -1637,33 +1641,33 @@
     <row r="26" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1675,7 +1679,7 @@
         <v>47</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1683,13 +1687,13 @@
     <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1697,33 +1701,33 @@
     <row r="30" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -1735,11 +1739,11 @@
         <v>45</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -1751,7 +1755,7 @@
         <v>45</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
@@ -1761,111 +1765,111 @@
     <row r="34" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1873,129 +1877,127 @@
     <row r="41" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="A44" s="3"/>
       <c r="B44" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
-        <v>156</v>
+      <c r="A45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="3"/>
+      <c r="A48" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="B48" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
@@ -2003,97 +2005,99 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>49</v>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F50" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A54" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -2101,65 +2105,71 @@
     <row r="55" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="3" t="s">
-        <v>78</v>
-      </c>
+    <row r="56" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="5"/>
-      <c r="B57" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>83</v>
+      <c r="D57" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="5"/>
+      <c r="B58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2174,8 +2184,8 @@
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="3"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2255,16 +2265,16 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A72" s="6"/>
+      <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="6"/>
@@ -2291,19 +2301,19 @@
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A76" s="7"/>
+      <c r="A76" s="6"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="14"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="13"/>
       <c r="F76" s="4"/>
     </row>
     <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="7"/>
-      <c r="B77" s="3"/>
+      <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="15"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="14"/>
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2317,14 +2327,14 @@
     <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="7"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="6"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A80" s="6"/>
-      <c r="B80" s="5"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="3"/>
       <c r="C80" s="7"/>
       <c r="D80" s="3"/>
       <c r="E80" s="16"/>
@@ -2332,7 +2342,7 @@
     </row>
     <row r="81" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="6"/>
-      <c r="B81" s="3"/>
+      <c r="B81" s="5"/>
       <c r="C81" s="7"/>
       <c r="D81" s="3"/>
       <c r="E81" s="16"/>
@@ -2340,243 +2350,251 @@
     </row>
     <row r="82" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="6"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="17"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="16"/>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="6"/>
-      <c r="B83" s="3"/>
+      <c r="B83" s="5"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="16"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="17"/>
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="6"/>
-      <c r="B84" s="5"/>
+      <c r="B84" s="3"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="17"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="16"/>
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="6"/>
-      <c r="B85" s="3"/>
+      <c r="B85" s="5"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="16"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="17"/>
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="6"/>
-      <c r="B86" s="5"/>
+      <c r="B86" s="3"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="17"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="16"/>
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="6"/>
-      <c r="B87" s="3"/>
+      <c r="B87" s="5"/>
       <c r="C87" s="6"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="16"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="17"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="6"/>
-      <c r="B88" s="5"/>
+      <c r="B88" s="3"/>
       <c r="C88" s="6"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="17"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="16"/>
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="6"/>
-      <c r="B89" s="3"/>
+      <c r="B89" s="5"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="16"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="17"/>
       <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="6"/>
-      <c r="B90" s="5"/>
+      <c r="B90" s="3"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="17"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="16"/>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="6"/>
-      <c r="B91" s="3"/>
+      <c r="B91" s="5"/>
       <c r="C91" s="6"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="16"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="17"/>
       <c r="F91" s="6"/>
     </row>
     <row r="92" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="6"/>
-      <c r="B92" s="5"/>
+      <c r="B92" s="3"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="17"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="16"/>
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="6"/>
-      <c r="B93" s="3"/>
+      <c r="B93" s="5"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="16"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="17"/>
       <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="6"/>
-      <c r="B94" s="5"/>
+      <c r="B94" s="3"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="17"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="16"/>
       <c r="F94" s="6"/>
     </row>
     <row r="95" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="6"/>
-      <c r="B95" s="3"/>
+      <c r="B95" s="5"/>
       <c r="C95" s="6"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="16"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="17"/>
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="6"/>
-      <c r="B96" s="5"/>
+      <c r="B96" s="3"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="17"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="16"/>
       <c r="F96" s="6"/>
     </row>
     <row r="97" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="6"/>
-      <c r="B97" s="3"/>
+      <c r="B97" s="5"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="16"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="17"/>
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="6"/>
-      <c r="B98" s="5"/>
+      <c r="B98" s="3"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="17"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="16"/>
       <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A99" s="6"/>
-      <c r="B99" s="3"/>
+      <c r="B99" s="5"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="16"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="17"/>
       <c r="F99" s="6"/>
     </row>
     <row r="100" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A100" s="6"/>
-      <c r="B100" s="5"/>
+      <c r="B100" s="3"/>
       <c r="C100" s="6"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="17"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="16"/>
       <c r="F100" s="6"/>
     </row>
     <row r="101" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A101" s="6"/>
-      <c r="B101" s="3"/>
+      <c r="B101" s="5"/>
       <c r="C101" s="6"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="16"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="17"/>
       <c r="F101" s="6"/>
     </row>
     <row r="102" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A102" s="6"/>
-      <c r="B102" s="5"/>
+      <c r="B102" s="3"/>
       <c r="C102" s="6"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="17"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="16"/>
       <c r="F102" s="6"/>
     </row>
     <row r="103" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A103" s="6"/>
-      <c r="B103" s="3"/>
+      <c r="B103" s="5"/>
       <c r="C103" s="6"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="16"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="17"/>
       <c r="F103" s="6"/>
     </row>
     <row r="104" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A104" s="6"/>
-      <c r="B104" s="5"/>
+      <c r="B104" s="3"/>
       <c r="C104" s="6"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="17"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="16"/>
       <c r="F104" s="6"/>
     </row>
     <row r="105" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A105" s="6"/>
-      <c r="B105" s="3"/>
+      <c r="B105" s="5"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="16"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="17"/>
       <c r="F105" s="6"/>
     </row>
     <row r="106" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A106" s="6"/>
-      <c r="B106" s="5"/>
+      <c r="B106" s="3"/>
       <c r="C106" s="6"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="17"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="16"/>
       <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A107" s="6"/>
-      <c r="B107" s="3"/>
+      <c r="B107" s="5"/>
       <c r="C107" s="6"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="16"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="17"/>
       <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A108" s="6"/>
-      <c r="B108" s="5"/>
+      <c r="B108" s="3"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="17"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="16"/>
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A109" s="6"/>
-      <c r="B109" s="3"/>
+      <c r="B109" s="5"/>
       <c r="C109" s="6"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="16"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="17"/>
       <c r="F109" s="6"/>
     </row>
     <row r="110" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A110" s="6"/>
-      <c r="B110" s="5"/>
+      <c r="B110" s="3"/>
       <c r="C110" s="6"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="17"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="16"/>
       <c r="F110" s="6"/>
     </row>
     <row r="111" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A111" s="6"/>
-      <c r="B111" s="3"/>
+      <c r="B111" s="5"/>
       <c r="C111" s="6"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="16"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="17"/>
       <c r="F111" s="6"/>
+    </row>
+    <row r="112" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A112" s="6"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1488" windowWidth="20568" windowHeight="10128"/>
+    <workbookView xWindow="240" yWindow="1548" windowWidth="20568" windowHeight="10068"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="产品管理系统首页">#REF!</definedName>
     <definedName name="通用" localSheetId="0">elements!#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
-    <definedName name="页面" localSheetId="0">elements!$A$54:$A$54</definedName>
+    <definedName name="页面" localSheetId="0">elements!$A$57:$A$57</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="159">
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="169">
   <si>
     <t>xpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +47,6 @@
   </si>
   <si>
     <t>//input[text()="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -623,43 +607,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div//li/a[text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div//li/a[text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//div[@class="head"]/table/thead/tr/th[1]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li/span[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="fixed" and not(contains(@style,"display: none;"))]/div/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//div[@class="opts"]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div//li/a[text()="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div//li/a[text()="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div[@class="body"]//div[@class="search"]//div[@class="layout"]//div[@class="opts form"]/div[@class="datas"]//div[@class="head"]/table/thead/tr/th[1]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li/span[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="fixed" and not(contains(@style,"display: none;"))]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//div[@class="opts"]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-menubox"][last()]//div[@class="timebar"]/div/span[2]</t>
+    <t>config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod3_pre_uc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://v3-yfb-portal.hd-cloud.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://p.51gxc.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod3_prod_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.6.105:7050/hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_pre_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=mysql,
+host=192.168.6.64,
+port=3306,
+user=hap,
+password=123456,
+dbname=hap_uc,
+sid=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod3_pre_url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +716,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +773,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -871,10 +925,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -924,9 +979,14 @@
     <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1253,16 +1313,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="133.6640625" customWidth="1"/>
@@ -1272,242 +1332,242 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.2" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="34.799999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="3"/>
@@ -1515,684 +1575,708 @@
     <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="19" t="s">
-        <v>51</v>
+      <c r="B19" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>148</v>
+        <v>157</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>157</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>161</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>92</v>
+      <c r="B22" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
-      <c r="B23" s="19" t="s">
-        <v>49</v>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
-      <c r="B24" s="20" t="s">
-        <v>122</v>
+      <c r="B24" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>136</v>
+      <c r="B26" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>99</v>
+      <c r="B27" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F28" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F29" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="20" t="s">
-        <v>129</v>
+      <c r="B34" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="20" t="s">
-        <v>124</v>
+      <c r="B35" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
-        <v>140</v>
+      <c r="B37" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
-      <c r="B38" s="19" t="s">
-        <v>61</v>
+      <c r="B38" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
-      <c r="B41" s="20" t="s">
-        <v>126</v>
+      <c r="B41" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
-      <c r="B42" s="20" t="s">
-        <v>124</v>
+      <c r="B42" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
-        <v>153</v>
+      <c r="A43" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>143</v>
-      </c>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
-      <c r="B44" s="19" t="s">
-        <v>109</v>
+      <c r="B44" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>109</v>
+      <c r="A45" s="3"/>
+      <c r="B45" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
-        <v>116</v>
+      <c r="B47" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>104</v>
+      <c r="B48" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>49</v>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F51" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
-        <v>43</v>
+      <c r="F55" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F56" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="5"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>82</v>
+        <v>4</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E58" s="3"/>
-      <c r="F58" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="5"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="B61" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
@@ -2200,8 +2284,8 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="3"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2273,24 +2357,24 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A73" s="6"/>
+      <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="4"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A74" s="6"/>
+      <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="4"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="6"/>
@@ -2309,47 +2393,47 @@
       <c r="F76" s="4"/>
     </row>
     <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A77" s="7"/>
+      <c r="A77" s="6"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="14"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="13"/>
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A78" s="7"/>
-      <c r="B78" s="3"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="15"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="13"/>
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="7"/>
-      <c r="B79" s="3"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="15"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="14"/>
       <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="6"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A81" s="6"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="6"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A82" s="6"/>
+      <c r="A82" s="7"/>
       <c r="B82" s="3"/>
       <c r="C82" s="7"/>
       <c r="D82" s="3"/>
@@ -2359,15 +2443,15 @@
     <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="6"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="17"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="16"/>
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="6"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="6"/>
+      <c r="C84" s="7"/>
       <c r="D84" s="3"/>
       <c r="E84" s="16"/>
       <c r="F84" s="6"/>
@@ -2596,9 +2680,30 @@
       <c r="E112" s="16"/>
       <c r="F112" s="6"/>
     </row>
+    <row r="113" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A113" s="6"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A114" s="6"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D18" r:id="rId1"/>
+    <hyperlink ref="D19" r:id="rId2"/>
+    <hyperlink ref="D20" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -386,10 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div/ul/li[@class="sl-tabitemx selected" and text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>页签#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,10 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class="sl-popup"]//span[contains(text(),'#')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数2个：按钮名称，选项名称；卡片中的复选框选择。如：功能位置中所属模块选择设备，参数为：#所属模块#设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -510,10 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li[#]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列表项#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -563,10 +551,6 @@
   </si>
   <si>
     <t>url#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]/div[@class="layout"]//div[@class="opts form"]//div[@class="datas"]/div[@class="table"]//div[@class="body"]/table/tbody//td/span/div[text()='#']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -706,6 +690,22 @@
   </si>
   <si>
     <t>prod3_pre_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]/div[@class="layout"]//div[@class="opts form"]//div[@class="datas"]/div[@class="table"]//div[@class="body"]/table/tbody//td/span/div[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-menubox"][last()]/div//div[@class="tree"]//ul/li[#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup"]//span[contains(text(),'#')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div/ul/li[contains(@class,"sl-tabitemx") and text()='#']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1316,8 +1316,8 @@
   <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1332,16 +1332,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
@@ -1369,10 +1369,10 @@
     <row r="3" spans="1:6" ht="22.2" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -1481,7 +1481,7 @@
     <row r="11" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>25</v>
@@ -1575,13 +1575,13 @@
     <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1589,13 +1589,13 @@
     <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1603,13 +1603,13 @@
     <row r="20" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1637,11 +1637,11 @@
         <v>41</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -1669,7 +1669,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
@@ -1685,11 +1685,11 @@
         <v>20</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
@@ -1711,13 +1711,13 @@
     <row r="27" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
@@ -1743,7 +1743,7 @@
     <row r="29" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     <row r="30" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>43</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1789,13 +1789,13 @@
     <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1809,11 +1809,11 @@
         <v>41</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -1841,7 +1841,7 @@
         <v>41</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
@@ -1857,7 +1857,7 @@
         <v>41</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
@@ -1867,65 +1867,65 @@
     <row r="37" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -1947,13 +1947,13 @@
     <row r="42" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -1962,16 +1962,16 @@
     </row>
     <row r="43" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1979,77 +1979,77 @@
     <row r="44" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
@@ -2059,13 +2059,13 @@
     <row r="49" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
@@ -2075,13 +2075,13 @@
     <row r="50" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
@@ -2090,41 +2090,41 @@
     </row>
     <row r="51" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>45</v>
@@ -2133,23 +2133,23 @@
         <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -2163,7 +2163,7 @@
         <v>41</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
@@ -2172,7 +2172,7 @@
     </row>
     <row r="56" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>57</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -2268,14 +2268,14 @@
     </row>
     <row r="62" spans="1:6" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1548" windowWidth="20568" windowHeight="10068"/>
+    <workbookView xWindow="240" yWindow="1608" windowWidth="20568" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -24,21 +24,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="194">
   <si>
     <t>xpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用</t>
+    <t>//input[text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色背景的行，为通用预定义元素，请勿删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,46 +78,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//input[text()="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>custom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰色背景的行，为通用预定义元素，请勿删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>link#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,10 +567,6 @@
   </si>
   <si>
     <t>小时加按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[contains(@class,"radiogroup")]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -706,6 +698,114 @@
   </si>
   <si>
     <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]//div/ul/li[contains(@class,"sl-tabitemx") and text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hayden.hap.fv:id/userET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hayden.hap.fv:id/pwdET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hayden.hap.fv:id/loginBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无名按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ImageView[@NAF='true' and @instance=#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为：instance的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为输入框的名称；包括选择输入和文本输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="#"]/../following-sibling::android.widget.FrameLayout[1]/*[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择项#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.ViewGroup/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加按钮的+号按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[contains(@class,"radiogroup")]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,7 +1029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -983,6 +1083,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1313,11 +1416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1332,64 +1435,64 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="22.2" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="3"/>
@@ -1397,13 +1500,13 @@
     <row r="5" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="3"/>
@@ -1411,13 +1514,13 @@
     <row r="6" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="3"/>
@@ -1425,13 +1528,13 @@
     <row r="7" spans="1:6" ht="34.799999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="3"/>
@@ -1439,13 +1542,13 @@
     <row r="8" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="3"/>
@@ -1453,13 +1556,13 @@
     <row r="9" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="3"/>
@@ -1467,13 +1570,13 @@
     <row r="10" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="3"/>
@@ -1481,13 +1584,13 @@
     <row r="11" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="3"/>
@@ -1495,13 +1598,13 @@
     <row r="12" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="3"/>
@@ -1509,13 +1612,13 @@
     <row r="13" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="3"/>
@@ -1523,13 +1626,13 @@
     <row r="14" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="3"/>
@@ -1537,13 +1640,13 @@
     <row r="15" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="3"/>
@@ -1551,11 +1654,11 @@
     <row r="16" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="3"/>
@@ -1563,11 +1666,11 @@
     <row r="17" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="3"/>
@@ -1575,13 +1678,13 @@
     <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1589,13 +1692,13 @@
     <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>153</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>155</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1603,13 +1706,13 @@
     <row r="20" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1617,13 +1720,13 @@
     <row r="21" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1631,157 +1734,157 @@
     <row r="22" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1789,13 +1892,13 @@
     <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1803,175 +1906,175 @@
     <row r="33" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1979,177 +2082,177 @@
     <row r="44" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -2157,49 +2260,49 @@
     <row r="55" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -2207,13 +2310,13 @@
     <row r="58" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -2221,136 +2324,198 @@
     <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5"/>
       <c r="B61" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="E63" s="12"/>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="B64" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="B66" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="B67" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="B68" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="69" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="B69" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="B70" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="B71" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
@@ -2358,7 +2523,7 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
+      <c r="F72" s="23"/>
     </row>
     <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="5"/>
@@ -2373,101 +2538,101 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A75" s="6"/>
+      <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="4"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A76" s="6"/>
+      <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="4"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A77" s="6"/>
+      <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="4"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A78" s="6"/>
+      <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="4"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A79" s="7"/>
+      <c r="A79" s="6"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="14"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="13"/>
       <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A80" s="7"/>
-      <c r="B80" s="3"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="15"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="13"/>
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A81" s="7"/>
-      <c r="B81" s="3"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="15"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="13"/>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A82" s="7"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="6"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A83" s="6"/>
+      <c r="A83" s="7"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="6"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A84" s="6"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="6"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A85" s="6"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="6"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A86" s="6"/>
+      <c r="A86" s="7"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="6"/>
+      <c r="C86" s="7"/>
       <c r="D86" s="3"/>
       <c r="E86" s="16"/>
       <c r="F86" s="6"/>
@@ -2475,15 +2640,15 @@
     <row r="87" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="6"/>
       <c r="B87" s="5"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="17"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="16"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="6"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="6"/>
+      <c r="C88" s="7"/>
       <c r="D88" s="3"/>
       <c r="E88" s="16"/>
       <c r="F88" s="6"/>
@@ -2695,6 +2860,38 @@
       <c r="D114" s="3"/>
       <c r="E114" s="16"/>
       <c r="F114" s="6"/>
+    </row>
+    <row r="115" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A115" s="6"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="6"/>
+    </row>
+    <row r="116" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A116" s="6"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="6"/>
+    </row>
+    <row r="117" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A117" s="6"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A118" s="6"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1608" windowWidth="20568" windowHeight="8496"/>
+    <workbookView xWindow="240" yWindow="1668" windowWidth="20568" windowHeight="8436"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="195">
   <si>
     <t>xpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="sl-flipper"]/span[@class="full" and text()="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列表页适用：用于检查统计的条目，例如参数为：全部 1 条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,10 +515,6 @@
   </si>
   <si>
     <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]/div[@class="layout"]//div[@class="opts form"]//div[@class="datas"]/div[@class="table"]//div[@class="body"]/table/tbody/tr[#]/td[2]/span/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -773,7 +765,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择项#</t>
+    <t>链接#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加按钮的+号按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -781,23 +781,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>链接#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.ViewGroup/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.ImageView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加按钮的+号按钮</t>
+    <t>包括选择项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -805,7 +793,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[contains(@text,'#')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="sl-flipper"]/span[@class="full" and text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[contains(@class,"radiogroup")]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.FrameLayout/following-sibling::android.widget.ImageView</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1416,11 +1420,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1435,16 +1439,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -1472,10 +1476,10 @@
     <row r="3" spans="1:6" ht="22.2" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -1584,7 +1588,7 @@
     <row r="11" spans="1:6" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>24</v>
@@ -1678,13 +1682,13 @@
     <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1692,13 +1696,13 @@
     <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>151</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>153</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1706,13 +1710,13 @@
     <row r="20" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1720,13 +1724,13 @@
     <row r="21" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1740,11 +1744,11 @@
         <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1756,11 +1760,11 @@
         <v>40</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -1776,23 +1780,23 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -1804,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
@@ -1814,13 +1818,13 @@
     <row r="27" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
@@ -1830,13 +1834,13 @@
     <row r="28" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
@@ -1846,33 +1850,33 @@
     <row r="29" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1884,7 +1888,7 @@
         <v>42</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1892,13 +1896,13 @@
     <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1906,33 +1910,33 @@
     <row r="33" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -1944,11 +1948,11 @@
         <v>40</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -1960,7 +1964,7 @@
         <v>40</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
@@ -1970,65 +1974,65 @@
     <row r="37" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -2040,41 +2044,41 @@
         <v>19</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2082,152 +2086,152 @@
     <row r="44" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>44</v>
@@ -2236,23 +2240,23 @@
         <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -2266,7 +2270,7 @@
         <v>40</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
@@ -2275,7 +2279,7 @@
     </row>
     <row r="56" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>56</v>
@@ -2288,7 +2292,7 @@
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2299,7 +2303,7 @@
         <v>36</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>35</v>
@@ -2330,71 +2334,71 @@
         <v>0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5"/>
       <c r="B61" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="3"/>
@@ -2402,13 +2406,13 @@
     <row r="64" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="5"/>
       <c r="B64" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -2416,13 +2420,13 @@
     <row r="65" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="5"/>
       <c r="B65" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="D65" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -2430,13 +2434,13 @@
     <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="5"/>
       <c r="B66" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -2444,78 +2448,80 @@
     <row r="67" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="5"/>
       <c r="B67" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="68" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="5"/>
       <c r="B68" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C68" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="5"/>
       <c r="B69" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="5"/>
       <c r="B70" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="5"/>
       <c r="B71" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E71" s="3"/>
-      <c r="F71" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="F71" s="23"/>
     </row>
     <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
@@ -2523,7 +2529,7 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="23"/>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="5"/>
@@ -2562,16 +2568,16 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A78" s="5"/>
+      <c r="A78" s="6"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="6"/>
@@ -2598,19 +2604,19 @@
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A82" s="6"/>
+      <c r="A82" s="7"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="13"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="14"/>
       <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="7"/>
-      <c r="B83" s="5"/>
+      <c r="B83" s="3"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="14"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="15"/>
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2624,14 +2630,14 @@
     <row r="85" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="7"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="4"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A86" s="7"/>
-      <c r="B86" s="3"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="5"/>
       <c r="C86" s="7"/>
       <c r="D86" s="3"/>
       <c r="E86" s="16"/>
@@ -2639,7 +2645,7 @@
     </row>
     <row r="87" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="6"/>
-      <c r="B87" s="5"/>
+      <c r="B87" s="3"/>
       <c r="C87" s="7"/>
       <c r="D87" s="3"/>
       <c r="E87" s="16"/>
@@ -2647,251 +2653,243 @@
     </row>
     <row r="88" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="6"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="16"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="17"/>
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="6"/>
-      <c r="B89" s="5"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="17"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="16"/>
       <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="6"/>
-      <c r="B90" s="3"/>
+      <c r="B90" s="5"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="16"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="17"/>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="6"/>
-      <c r="B91" s="5"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="6"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="17"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="16"/>
       <c r="F91" s="6"/>
     </row>
     <row r="92" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="6"/>
-      <c r="B92" s="3"/>
+      <c r="B92" s="5"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="16"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="17"/>
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="6"/>
-      <c r="B93" s="5"/>
+      <c r="B93" s="3"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="17"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="16"/>
       <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="6"/>
-      <c r="B94" s="3"/>
+      <c r="B94" s="5"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="16"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="17"/>
       <c r="F94" s="6"/>
     </row>
     <row r="95" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="6"/>
-      <c r="B95" s="5"/>
+      <c r="B95" s="3"/>
       <c r="C95" s="6"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="17"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="16"/>
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="6"/>
-      <c r="B96" s="3"/>
+      <c r="B96" s="5"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="16"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="17"/>
       <c r="F96" s="6"/>
     </row>
     <row r="97" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="6"/>
-      <c r="B97" s="5"/>
+      <c r="B97" s="3"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="17"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="16"/>
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="6"/>
-      <c r="B98" s="3"/>
+      <c r="B98" s="5"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="16"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="17"/>
       <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A99" s="6"/>
-      <c r="B99" s="5"/>
+      <c r="B99" s="3"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="17"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="16"/>
       <c r="F99" s="6"/>
     </row>
     <row r="100" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A100" s="6"/>
-      <c r="B100" s="3"/>
+      <c r="B100" s="5"/>
       <c r="C100" s="6"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="16"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="17"/>
       <c r="F100" s="6"/>
     </row>
     <row r="101" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A101" s="6"/>
-      <c r="B101" s="5"/>
+      <c r="B101" s="3"/>
       <c r="C101" s="6"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="17"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="16"/>
       <c r="F101" s="6"/>
     </row>
     <row r="102" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A102" s="6"/>
-      <c r="B102" s="3"/>
+      <c r="B102" s="5"/>
       <c r="C102" s="6"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="16"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="17"/>
       <c r="F102" s="6"/>
     </row>
     <row r="103" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A103" s="6"/>
-      <c r="B103" s="5"/>
+      <c r="B103" s="3"/>
       <c r="C103" s="6"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="17"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="16"/>
       <c r="F103" s="6"/>
     </row>
     <row r="104" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A104" s="6"/>
-      <c r="B104" s="3"/>
+      <c r="B104" s="5"/>
       <c r="C104" s="6"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="16"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="17"/>
       <c r="F104" s="6"/>
     </row>
     <row r="105" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A105" s="6"/>
-      <c r="B105" s="5"/>
+      <c r="B105" s="3"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="17"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="16"/>
       <c r="F105" s="6"/>
     </row>
     <row r="106" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A106" s="6"/>
-      <c r="B106" s="3"/>
+      <c r="B106" s="5"/>
       <c r="C106" s="6"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="16"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="17"/>
       <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A107" s="6"/>
-      <c r="B107" s="5"/>
+      <c r="B107" s="3"/>
       <c r="C107" s="6"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="17"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="16"/>
       <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A108" s="6"/>
-      <c r="B108" s="3"/>
+      <c r="B108" s="5"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="16"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="17"/>
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A109" s="6"/>
-      <c r="B109" s="5"/>
+      <c r="B109" s="3"/>
       <c r="C109" s="6"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="17"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="16"/>
       <c r="F109" s="6"/>
     </row>
     <row r="110" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A110" s="6"/>
-      <c r="B110" s="3"/>
+      <c r="B110" s="5"/>
       <c r="C110" s="6"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="16"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="17"/>
       <c r="F110" s="6"/>
     </row>
     <row r="111" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A111" s="6"/>
-      <c r="B111" s="5"/>
+      <c r="B111" s="3"/>
       <c r="C111" s="6"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="17"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="16"/>
       <c r="F111" s="6"/>
     </row>
     <row r="112" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A112" s="6"/>
-      <c r="B112" s="3"/>
+      <c r="B112" s="5"/>
       <c r="C112" s="6"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="16"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="17"/>
       <c r="F112" s="6"/>
     </row>
     <row r="113" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A113" s="6"/>
-      <c r="B113" s="5"/>
+      <c r="B113" s="3"/>
       <c r="C113" s="6"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="17"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="16"/>
       <c r="F113" s="6"/>
     </row>
     <row r="114" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A114" s="6"/>
-      <c r="B114" s="3"/>
+      <c r="B114" s="5"/>
       <c r="C114" s="6"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="16"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="17"/>
       <c r="F114" s="6"/>
     </row>
     <row r="115" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A115" s="6"/>
-      <c r="B115" s="5"/>
+      <c r="B115" s="3"/>
       <c r="C115" s="6"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="17"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="16"/>
       <c r="F115" s="6"/>
     </row>
     <row r="116" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A116" s="6"/>
-      <c r="B116" s="3"/>
+      <c r="B116" s="5"/>
       <c r="C116" s="6"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="16"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="17"/>
       <c r="F116" s="6"/>
     </row>
     <row r="117" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A117" s="6"/>
-      <c r="B117" s="5"/>
+      <c r="B117" s="3"/>
       <c r="C117" s="6"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="17"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="16"/>
       <c r="F117" s="6"/>
-    </row>
-    <row r="118" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A118" s="6"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1668" windowWidth="20568" windowHeight="8436"/>
+    <workbookView xWindow="240" yWindow="1788" windowWidth="20568" windowHeight="8316"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="231">
   <si>
     <t>xpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -741,75 +741,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无名按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.ImageView[@NAF='true' and @instance=#]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为：instance的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数为输入框的名称；包括选择输入和文本输入框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>链接#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加按钮的+号按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="sl-flipper"]/span[@class="full" and text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[contains(@class,"radiogroup")]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.FrameLayout/following-sibling::android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='#']/../../android.widget.FrameLayout[2]//android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有名称的点击项，包括选择项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单中的无名按钮，参数为表单区域的名称，比如隐患图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现人添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='发现人']/../../following-sibling::android.widget.FrameLayout/android.widget.FrameLayout[3]//android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现人删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为按钮名称，例如添加图片的弹出选择按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hayden.hap.fv:id/check_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hayden.hap.fv:id/done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hayden.hap.fv:id/control_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hayden.hap.fv:id/accomplish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='#']/../../android.widget.FrameLayout[1]//android.widget.ImageView[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表抽屉#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='#']/../../android.widget.FrameLayout[1]/android.widget.FrameLayout[2]//android.widget.ImageView[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类表右上角抽屉按钮，参数为页面的名称，比如隐患任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上角返回按钮，参数为页面的名称，比如隐患任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app相册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app隐患任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='发现人']/../../following-sibling::android.widget.FrameLayout/android.widget.FrameLayout[2]//android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app送交页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='#']/../../following-sibling::android.widget.FrameLayout/android.widget.FrameLayout[1]//android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='#']/../../following-sibling::android.widget.FrameLayout/android.widget.FrameLayout[2]//android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送交人删除#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为送交环节的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送交人添加#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout/android.support.v7.widget.RecyclerView[2]/android.widget.LinearLayout[#]//android.widget.RelativeLayout/android.widget.TextView[@resource-id='com.hayden.hap.fv:id/org_type_recycle_item_tv_org']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织选择#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[contains(@text,'#')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>//android.view.View[@content-desc="#"]/../following-sibling::android.widget.FrameLayout[1]/*[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>链接#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加按钮的+号按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括选择项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[contains(@text,'#')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="sl-flipper"]/span[@class="full" and text()="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[contains(@class,"radiogroup")]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.FrameLayout/following-sibling::android.widget.ImageView</t>
+    <t>//android.view.View[@content-desc="#"]/../..//android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为字段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本输入#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择输入#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1420,11 +1564,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1920,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
@@ -2044,7 +2188,7 @@
         <v>19</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2240,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
@@ -2373,7 +2517,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
         <v>148</v>
       </c>
@@ -2434,13 +2578,13 @@
     <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="5"/>
       <c r="B66" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>176</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -2454,263 +2598,363 @@
         <v>176</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="5"/>
       <c r="B68" s="5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="5"/>
       <c r="B69" s="5" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="5"/>
       <c r="B70" s="5" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>176</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="5"/>
       <c r="B71" s="5" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="E71" s="3"/>
-      <c r="F71" s="23"/>
+      <c r="F71" s="3" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="B72" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="B73" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F73" s="23"/>
+    </row>
+    <row r="74" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="B74" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F74" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="B75" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F75" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="B76" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A78" s="6"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A79" s="6"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A80" s="6"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A81" s="6"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A82" s="7"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="4"/>
+      <c r="F76" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A83" s="7"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A84" s="7"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="4"/>
-    </row>
-    <row r="85" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A85" s="7"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="6"/>
+      <c r="A83" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A86" s="6"/>
+      <c r="A86" s="5"/>
       <c r="B86" s="5"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="6"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A87" s="6"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="6"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="6"/>
       <c r="B88" s="5"/>
-      <c r="C88" s="6"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="6"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="6"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="6"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="6"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="6"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="5"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="6"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="4"/>
     </row>
     <row r="91" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="6"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="6"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="4"/>
     </row>
     <row r="92" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A92" s="6"/>
+      <c r="A92" s="7"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="6"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="4"/>
     </row>
     <row r="93" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A93" s="6"/>
+      <c r="A93" s="7"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="6"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="4"/>
     </row>
     <row r="94" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A94" s="6"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="6"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="4"/>
     </row>
     <row r="95" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A95" s="6"/>
+      <c r="A95" s="7"/>
       <c r="B95" s="3"/>
-      <c r="C95" s="6"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="3"/>
       <c r="E95" s="16"/>
       <c r="F95" s="6"/>
@@ -2718,15 +2962,15 @@
     <row r="96" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="6"/>
       <c r="B96" s="5"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="17"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="16"/>
       <c r="F96" s="6"/>
     </row>
     <row r="97" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="6"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="6"/>
+      <c r="C97" s="7"/>
       <c r="D97" s="3"/>
       <c r="E97" s="16"/>
       <c r="F97" s="6"/>
@@ -2890,6 +3134,86 @@
       <c r="D117" s="3"/>
       <c r="E117" s="16"/>
       <c r="F117" s="6"/>
+    </row>
+    <row r="118" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A118" s="6"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="6"/>
+    </row>
+    <row r="119" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A119" s="6"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A120" s="6"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="6"/>
+    </row>
+    <row r="121" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A121" s="6"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="6"/>
+    </row>
+    <row r="122" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A122" s="6"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A123" s="6"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A124" s="6"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A125" s="6"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="6"/>
+    </row>
+    <row r="126" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A126" s="6"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A127" s="6"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1788" windowWidth="20568" windowHeight="8316"/>
+    <workbookView xWindow="240" yWindow="1848" windowWidth="20568" windowHeight="8256"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="230">
   <si>
     <t>xpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -729,87 +729,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为输入框的名称；包括选择输入和文本输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加按钮的+号按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="sl-flipper"]/span[@class="full" and text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[contains(@class,"radiogroup")]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.FrameLayout/following-sibling::android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='#']/../../android.widget.FrameLayout[2]//android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有名称的点击项，包括选择项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单中的无名按钮，参数为表单区域的名称，比如隐患图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='发现人']/../../following-sibling::android.widget.FrameLayout/android.widget.FrameLayout[3]//android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='#']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为按钮名称，例如添加图片的弹出选择按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hayden.hap.fv:id/check_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hayden.hap.fv:id/done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hayden.hap.fv:id/control_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hayden.hap.fv:id/accomplish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='#']/../../android.widget.FrameLayout[1]//android.widget.ImageView[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表抽屉#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='#']/../../android.widget.FrameLayout[1]/android.widget.FrameLayout[2]//android.widget.ImageView[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类表右上角抽屉按钮，参数为页面的名称，比如隐患任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上角返回按钮，参数为页面的名称，比如隐患任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app相册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app隐患任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app送交页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='#']/../../following-sibling::android.widget.FrameLayout/android.widget.FrameLayout[1]//android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='#']/../../following-sibling::android.widget.FrameLayout/android.widget.FrameLayout[2]//android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送交人删除#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为送交环节的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送交人添加#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout/android.support.v7.widget.RecyclerView[2]/android.widget.LinearLayout[#]//android.widget.RelativeLayout/android.widget.TextView[@resource-id='com.hayden.hap.fv:id/org_type_recycle_item_tv_org']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织选择#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[contains(@text,'#')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="#"]/../following-sibling::android.widget.FrameLayout[1]/*[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为字段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本输入#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>按钮#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为输入框的名称；包括选择输入和文本输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加按钮的+号按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="sl-popup model" and not(contains(@style,"display: none;"))][last()]//div/table/tbody/tr/td/span[text()='#']/following-sibling::span[1]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-formx"]//div[@class="sl-flipper"]/span[@class="full" and text()="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="page"]//div[@class="body"]/div[@class="content"]/div[@class="func"]//div[@class="sys-cardx"]//td[contains(@class,"radiogroup")]/span[text()='#']/following-sibling::span/div/ul/li[text()='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.FrameLayout/following-sibling::android.widget.ImageView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc='#']/../../android.widget.FrameLayout[2]//android.widget.ImageView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有名称的点击项，包括选择项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单中的无名按钮，参数为表单区域的名称，比如隐患图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现人添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc='发现人']/../../following-sibling::android.widget.FrameLayout/android.widget.FrameLayout[3]//android.widget.ImageView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现人删除</t>
+    <t>选择输入#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="#"]/../../..//android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现人删除按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -817,143 +949,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>弹出按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为按钮名称，例如添加图片的弹出选择按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相册选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hayden.hap.fv:id/check_image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hayden.hap.fv:id/done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相册完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hayden.hap.fv:id/control_view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hayden.hap.fv:id/accomplish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍照完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc='#']/../../android.widget.FrameLayout[1]//android.widget.ImageView[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表抽屉#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc='#']/../../android.widget.FrameLayout[1]/android.widget.FrameLayout[2]//android.widget.ImageView[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类表右上角抽屉按钮，参数为页面的名称，比如隐患任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左上角返回按钮，参数为页面的名称，比如隐患任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app相册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app隐患任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc='发现人']/../../following-sibling::android.widget.FrameLayout/android.widget.FrameLayout[2]//android.widget.ImageView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app送交页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc='#']/../../following-sibling::android.widget.FrameLayout/android.widget.FrameLayout[1]//android.widget.ImageView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc='#']/../../following-sibling::android.widget.FrameLayout/android.widget.FrameLayout[2]//android.widget.ImageView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送交人删除#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为送交环节的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送交人添加#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.LinearLayout/android.support.v7.widget.RecyclerView[2]/android.widget.LinearLayout[#]//android.widget.RelativeLayout/android.widget.TextView[@resource-id='com.hayden.hap.fv:id/org_type_recycle_item_tv_org']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织选择#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[contains(@text,'#')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc="#"]/../following-sibling::android.widget.FrameLayout[1]/*[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc="#"]/../..//android.widget.ImageView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为字段名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本输入#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择输入#</t>
+    <t>//android.widget.TextView[@text='#']|android.view.View[@content-desc="#"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1564,11 +1560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1572,7 @@
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="133.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.5546875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="101.88671875" customWidth="1"/>
   </cols>
@@ -1920,7 +1916,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
@@ -2188,7 +2184,7 @@
         <v>19</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2384,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
@@ -2507,7 +2503,7 @@
         <v>72</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>76</v>
@@ -2578,123 +2574,123 @@
     <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="5"/>
       <c r="B66" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A67" s="5"/>
       <c r="B67" s="5" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="5"/>
       <c r="B68" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="5"/>
       <c r="B69" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="5"/>
       <c r="B70" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A71" s="5"/>
       <c r="B71" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="5"/>
       <c r="B73" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="23"/>
@@ -2702,63 +2698,63 @@
     <row r="74" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="5"/>
       <c r="B74" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="5"/>
       <c r="B75" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -2766,13 +2762,13 @@
     <row r="78" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="5"/>
       <c r="B78" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -2780,13 +2776,13 @@
     <row r="79" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="5"/>
       <c r="B79" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -2794,106 +2790,98 @@
     <row r="80" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="5"/>
       <c r="B80" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="5"/>
       <c r="B82" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B83" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="C83" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D83" s="5"/>
+      <c r="D83" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="5"/>
-      <c r="B84" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>215</v>
-      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="5"/>
-      <c r="B85" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A86" s="5"/>
+      <c r="A86" s="6"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="4"/>
     </row>
     <row r="87" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A87" s="5"/>
+      <c r="A87" s="6"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="6"/>
@@ -2912,47 +2900,47 @@
       <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A90" s="6"/>
+      <c r="A90" s="7"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="13"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="14"/>
       <c r="F90" s="4"/>
     </row>
     <row r="91" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A91" s="6"/>
-      <c r="B91" s="5"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="13"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="15"/>
       <c r="F91" s="4"/>
     </row>
     <row r="92" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="7"/>
-      <c r="B92" s="5"/>
+      <c r="B92" s="3"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="14"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="15"/>
       <c r="F92" s="4"/>
     </row>
     <row r="93" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="7"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="4"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A94" s="7"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="4"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="6"/>
     </row>
     <row r="95" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A95" s="7"/>
+      <c r="A95" s="6"/>
       <c r="B95" s="3"/>
       <c r="C95" s="7"/>
       <c r="D95" s="3"/>
@@ -2962,15 +2950,15 @@
     <row r="96" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="6"/>
       <c r="B96" s="5"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="16"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="17"/>
       <c r="F96" s="6"/>
     </row>
     <row r="97" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="6"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="7"/>
+      <c r="C97" s="6"/>
       <c r="D97" s="3"/>
       <c r="E97" s="16"/>
       <c r="F97" s="6"/>
@@ -3198,22 +3186,6 @@
       <c r="D125" s="3"/>
       <c r="E125" s="16"/>
       <c r="F125" s="6"/>
-    </row>
-    <row r="126" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A126" s="6"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="6"/>
-    </row>
-    <row r="127" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A127" s="6"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/element/Prod3-Elements.xlsx
+++ b/element/Prod3-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1848" windowWidth="20568" windowHeight="8256"/>
+    <workbookView xWindow="240" yWindow="1908" windowWidth="20568" windowHeight="8196"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="227">
   <si>
     <t>xpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -741,10 +741,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>链接#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -793,163 +789,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>相册选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hayden.hap.fv:id/check_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hayden.hap.fv:id/done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hayden.hap.fv:id/control_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hayden.hap.fv:id/accomplish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='#']/../../android.widget.FrameLayout[1]//android.widget.ImageView[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表抽屉#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='#']/../../android.widget.FrameLayout[1]/android.widget.FrameLayout[2]//android.widget.ImageView[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类表右上角抽屉按钮，参数为页面的名称，比如隐患任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上角返回按钮，参数为页面的名称，比如隐患任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app相册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app隐患任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app送交页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送交人删除#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为送交环节的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送交人添加#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout/android.support.v7.widget.RecyclerView[2]/android.widget.LinearLayout[#]//android.widget.RelativeLayout/android.widget.TextView[@resource-id='com.hayden.hap.fv:id/org_type_recycle_item_tv_org']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织选择#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[contains(@text,'#')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="#"]/../following-sibling::android.widget.FrameLayout[1]/*[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为字段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本输入#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择输入#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现人删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='#']|//android.view.View[@content-desc="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="#"]/../../..//android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='#']/../../following-sibling::android.widget.FrameLayout/android.widget.FrameLayout[1]//android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='#']/../../following-sibling::android.widget.FrameLayout/android.widget.FrameLayout[2]//android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>//android.view.View[@content-desc='发现人']/../../following-sibling::android.widget.FrameLayout/android.widget.FrameLayout[3]//android.widget.ImageView</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//android.widget.TextView[@text='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出按钮#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为按钮名称，例如添加图片的弹出选择按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相册选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hayden.hap.fv:id/check_image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hayden.hap.fv:id/done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相册完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hayden.hap.fv:id/control_view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hayden.hap.fv:id/accomplish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍照完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc='#']/../../android.widget.FrameLayout[1]//android.widget.ImageView[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表抽屉#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc='#']/../../android.widget.FrameLayout[1]/android.widget.FrameLayout[2]//android.widget.ImageView[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类表右上角抽屉按钮，参数为页面的名称，比如隐患任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左上角返回按钮，参数为页面的名称，比如隐患任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app相册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app隐患任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app送交页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc='#']/../../following-sibling::android.widget.FrameLayout/android.widget.FrameLayout[1]//android.widget.ImageView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc='#']/../../following-sibling::android.widget.FrameLayout/android.widget.FrameLayout[2]//android.widget.ImageView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送交人删除#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为送交环节的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送交人添加#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.LinearLayout/android.support.v7.widget.RecyclerView[2]/android.widget.LinearLayout[#]//android.widget.RelativeLayout/android.widget.TextView[@resource-id='com.hayden.hap.fv:id/org_type_recycle_item_tv_org']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织选择#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[contains(@text,'#')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc="#"]/../following-sibling::android.widget.FrameLayout[1]/*[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为字段名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本输入#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按钮#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择输入#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc="#"]/../../..//android.widget.ImageView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现人删除按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='#']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='#']|android.view.View[@content-desc="#"]</t>
+    <t>(//android.view.View[@content-desc="#"])[last()]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1560,11 +1548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1916,7 +1904,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
@@ -2019,7 +2007,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>47</v>
@@ -2184,7 +2172,7 @@
         <v>19</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2380,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
@@ -2571,190 +2559,188 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A66" s="5"/>
       <c r="B66" s="5" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>175</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="F66" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="5"/>
       <c r="B67" s="5" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A68" s="5"/>
       <c r="B68" s="5" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A69" s="5"/>
       <c r="B69" s="5" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A70" s="5"/>
       <c r="B70" s="5" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>175</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="5"/>
       <c r="B71" s="5" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E71" s="3"/>
-      <c r="F71" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F71" s="23"/>
+    </row>
+    <row r="72" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="5" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="5"/>
       <c r="B73" s="5" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="E73" s="3"/>
-      <c r="F73" s="23"/>
+      <c r="F73" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="74" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="5"/>
       <c r="B74" s="5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="5"/>
+      <c r="A75" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="B75" s="5" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E75" s="3"/>
-      <c r="F75" s="3" t="s">
-        <v>207</v>
-      </c>
+      <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="E76" s="3"/>
-      <c r="F76" s="3" t="s">
-        <v>218</v>
-      </c>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="A77" s="5"/>
       <c r="B77" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C77" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -2762,92 +2748,86 @@
     <row r="78" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="5"/>
       <c r="B78" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="5"/>
+      <c r="A79" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="B79" s="5" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
+      <c r="F79" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="80" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="5"/>
       <c r="B80" s="5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="81" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="5" t="s">
-        <v>211</v>
-      </c>
+      <c r="A81" s="5"/>
       <c r="B81" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="E81" s="3"/>
-      <c r="F81" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="5"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="B82" s="5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E82" s="3"/>
-      <c r="F82" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A83" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>190</v>
-      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
@@ -2856,16 +2836,16 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A85" s="5"/>
+      <c r="A85" s="6"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="6"/>
@@ -2892,19 +2872,19 @@
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A89" s="6"/>
+      <c r="A89" s="7"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="13"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="14"/>
       <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="7"/>
-      <c r="B90" s="5"/>
+      <c r="B90" s="3"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="14"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="15"/>
       <c r="F90" s="4"/>
     </row>
     <row r="91" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2918,14 +2898,14 @@
     <row r="92" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="7"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="4"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A93" s="7"/>
-      <c r="B93" s="3"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="5"/>
       <c r="C93" s="7"/>
       <c r="D93" s="3"/>
       <c r="E93" s="16"/>
@@ -2933,7 +2913,7 @@
     </row>
     <row r="94" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="6"/>
-      <c r="B94" s="5"/>
+      <c r="B94" s="3"/>
       <c r="C94" s="7"/>
       <c r="D94" s="3"/>
       <c r="E94" s="16"/>
@@ -2941,251 +2921,243 @@
     </row>
     <row r="95" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="6"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="16"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="17"/>
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="6"/>
-      <c r="B96" s="5"/>
+      <c r="B96" s="3"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="17"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="16"/>
       <c r="F96" s="6"/>
     </row>
     <row r="97" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="6"/>
-      <c r="B97" s="3"/>
+      <c r="B97" s="5"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="16"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="17"/>
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="6"/>
-      <c r="B98" s="5"/>
+      <c r="B98" s="3"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="17"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="16"/>
       <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A99" s="6"/>
-      <c r="B99" s="3"/>
+      <c r="B99" s="5"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="16"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="17"/>
       <c r="F99" s="6"/>
     </row>
     <row r="100" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A100" s="6"/>
-      <c r="B100" s="5"/>
+      <c r="B100" s="3"/>
       <c r="C100" s="6"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="17"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="16"/>
       <c r="F100" s="6"/>
     </row>
     <row r="101" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A101" s="6"/>
-      <c r="B101" s="3"/>
+      <c r="B101" s="5"/>
       <c r="C101" s="6"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="16"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="17"/>
       <c r="F101" s="6"/>
     </row>
     <row r="102" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A102" s="6"/>
-      <c r="B102" s="5"/>
+      <c r="B102" s="3"/>
       <c r="C102" s="6"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="17"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="16"/>
       <c r="F102" s="6"/>
     </row>
     <row r="103" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A103" s="6"/>
-      <c r="B103" s="3"/>
+      <c r="B103" s="5"/>
       <c r="C103" s="6"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="16"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="17"/>
       <c r="F103" s="6"/>
     </row>
     <row r="104" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A104" s="6"/>
-      <c r="B104" s="5"/>
+      <c r="B104" s="3"/>
       <c r="C104" s="6"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="17"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="16"/>
       <c r="F104" s="6"/>
     </row>
     <row r="105" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A105" s="6"/>
-      <c r="B105" s="3"/>
+      <c r="B105" s="5"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="16"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="17"/>
       <c r="F105" s="6"/>
     </row>
     <row r="106" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A106" s="6"/>
-      <c r="B106" s="5"/>
+      <c r="B106" s="3"/>
       <c r="C106" s="6"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="17"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="16"/>
       <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A107" s="6"/>
-      <c r="B107" s="3"/>
+      <c r="B107" s="5"/>
       <c r="C107" s="6"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="16"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="17"/>
       <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A108" s="6"/>
-      <c r="B108" s="5"/>
+      <c r="B108" s="3"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="17"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="16"/>
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A109" s="6"/>
-      <c r="B109" s="3"/>
+      <c r="B109" s="5"/>
       <c r="C109" s="6"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="16"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="17"/>
       <c r="F109" s="6"/>
     </row>
     <row r="110" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A110" s="6"/>
-      <c r="B110" s="5"/>
+      <c r="B110" s="3"/>
       <c r="C110" s="6"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="17"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="16"/>
       <c r="F110" s="6"/>
     </row>
     <row r="111" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A111" s="6"/>
-      <c r="B111" s="3"/>
+      <c r="B111" s="5"/>
       <c r="C111" s="6"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="16"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="17"/>
       <c r="F111" s="6"/>
     </row>
     <row r="112" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A112" s="6"/>
-      <c r="B112" s="5"/>
+      <c r="B112" s="3"/>
       <c r="C112" s="6"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="17"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="16"/>
       <c r="F112" s="6"/>
     </row>
     <row r="113" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A113" s="6"/>
-      <c r="B113" s="3"/>
+      <c r="B113" s="5"/>
       <c r="C113" s="6"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="16"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="17"/>
       <c r="F113" s="6"/>
     </row>
     <row r="114" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A114" s="6"/>
-      <c r="B114" s="5"/>
+      <c r="B114" s="3"/>
       <c r="C114" s="6"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="17"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="16"/>
       <c r="F114" s="6"/>
     </row>
     <row r="115" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A115" s="6"/>
-      <c r="B115" s="3"/>
+      <c r="B115" s="5"/>
       <c r="C115" s="6"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="16"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="17"/>
       <c r="F115" s="6"/>
     </row>
     <row r="116" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A116" s="6"/>
-      <c r="B116" s="5"/>
+      <c r="B116" s="3"/>
       <c r="C116" s="6"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="17"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="16"/>
       <c r="F116" s="6"/>
     </row>
     <row r="117" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A117" s="6"/>
-      <c r="B117" s="3"/>
+      <c r="B117" s="5"/>
       <c r="C117" s="6"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="16"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="17"/>
       <c r="F117" s="6"/>
     </row>
     <row r="118" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A118" s="6"/>
-      <c r="B118" s="5"/>
+      <c r="B118" s="3"/>
       <c r="C118" s="6"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="17"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="16"/>
       <c r="F118" s="6"/>
     </row>
     <row r="119" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A119" s="6"/>
-      <c r="B119" s="3"/>
+      <c r="B119" s="5"/>
       <c r="C119" s="6"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="16"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="17"/>
       <c r="F119" s="6"/>
     </row>
     <row r="120" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A120" s="6"/>
-      <c r="B120" s="5"/>
+      <c r="B120" s="3"/>
       <c r="C120" s="6"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="17"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="16"/>
       <c r="F120" s="6"/>
     </row>
     <row r="121" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A121" s="6"/>
-      <c r="B121" s="3"/>
+      <c r="B121" s="5"/>
       <c r="C121" s="6"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="16"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="17"/>
       <c r="F121" s="6"/>
     </row>
     <row r="122" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A122" s="6"/>
-      <c r="B122" s="5"/>
+      <c r="B122" s="3"/>
       <c r="C122" s="6"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="17"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="16"/>
       <c r="F122" s="6"/>
     </row>
     <row r="123" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A123" s="6"/>
-      <c r="B123" s="3"/>
+      <c r="B123" s="5"/>
       <c r="C123" s="6"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="16"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="17"/>
       <c r="F123" s="6"/>
     </row>
     <row r="124" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A124" s="6"/>
-      <c r="B124" s="5"/>
+      <c r="B124" s="3"/>
       <c r="C124" s="6"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="17"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="16"/>
       <c r="F124" s="6"/>
-    </row>
-    <row r="125" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A125" s="6"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
